--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9745945776568262</v>
+        <v>0.9955435077519086</v>
       </c>
       <c r="D2">
-        <v>0.997569636184503</v>
+        <v>1.012841159007496</v>
       </c>
       <c r="E2">
-        <v>0.9820492465303675</v>
+        <v>1.007898869219199</v>
       </c>
       <c r="F2">
-        <v>0.977941065706654</v>
+        <v>1.010274849014586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035284649522608</v>
+        <v>1.039342332433908</v>
       </c>
       <c r="J2">
-        <v>0.9975626535992056</v>
+        <v>1.017858333704911</v>
       </c>
       <c r="K2">
-        <v>1.009062934000924</v>
+        <v>1.024124448547239</v>
       </c>
       <c r="L2">
-        <v>0.993764461179849</v>
+        <v>1.019249246258022</v>
       </c>
       <c r="M2">
-        <v>0.9897165180162716</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.021592871008517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.985182853808622</v>
+        <v>1.004719312456722</v>
       </c>
       <c r="D3">
-        <v>1.005941341821365</v>
+        <v>1.019771880075303</v>
       </c>
       <c r="E3">
-        <v>0.991217418239694</v>
+        <v>1.016043797838084</v>
       </c>
       <c r="F3">
-        <v>0.9890125925842489</v>
+        <v>1.019266919127539</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039027384990181</v>
+        <v>1.041840761473575</v>
       </c>
       <c r="J3">
-        <v>1.006085764279112</v>
+        <v>1.025082145840056</v>
       </c>
       <c r="K3">
-        <v>1.016498762340635</v>
+        <v>1.030157875137156</v>
       </c>
       <c r="L3">
-        <v>1.001963921085787</v>
+        <v>1.026475429723251</v>
       </c>
       <c r="M3">
-        <v>0.9997880169271328</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.029659071303678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9917355582303281</v>
+        <v>1.010444382798218</v>
       </c>
       <c r="D4">
-        <v>1.01112517517767</v>
+        <v>1.024097794682544</v>
       </c>
       <c r="E4">
-        <v>0.9968926259307039</v>
+        <v>1.021132321617819</v>
       </c>
       <c r="F4">
-        <v>0.9958729875246818</v>
+        <v>1.024887031272427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041325283643931</v>
+        <v>1.043385021465338</v>
       </c>
       <c r="J4">
-        <v>1.011353058197392</v>
+        <v>1.029584641663628</v>
       </c>
       <c r="K4">
-        <v>1.021091158150776</v>
+        <v>1.033913826349401</v>
       </c>
       <c r="L4">
-        <v>1.00702869946583</v>
+        <v>1.030982216701744</v>
       </c>
       <c r="M4">
-        <v>1.006021478486436</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.034694091179666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9944246643488155</v>
+        <v>1.012803838012204</v>
       </c>
       <c r="D5">
-        <v>1.013253008672196</v>
+        <v>1.025880837764629</v>
       </c>
       <c r="E5">
-        <v>0.9992218100718886</v>
+        <v>1.023230917386143</v>
       </c>
       <c r="F5">
-        <v>0.9986904073728619</v>
+        <v>1.02720546101712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042263797855285</v>
+        <v>1.044017863818576</v>
       </c>
       <c r="J5">
-        <v>1.013512801503984</v>
+        <v>1.03143903043452</v>
       </c>
       <c r="K5">
-        <v>1.022973413565858</v>
+        <v>1.035459595686427</v>
       </c>
       <c r="L5">
-        <v>1.009104800001986</v>
+        <v>1.032839043010559</v>
       </c>
       <c r="M5">
-        <v>1.008579666045661</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.036769608623587</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9948724828849386</v>
+        <v>1.013197317256866</v>
       </c>
       <c r="D6">
-        <v>1.013607381157734</v>
+        <v>1.026178198572847</v>
       </c>
       <c r="E6">
-        <v>0.9996096978000419</v>
+        <v>1.023580977673668</v>
       </c>
       <c r="F6">
-        <v>0.9991597136273237</v>
+        <v>1.027592227295928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042419821670273</v>
+        <v>1.044123187443932</v>
       </c>
       <c r="J6">
-        <v>1.013872353322922</v>
+        <v>1.031748207537029</v>
       </c>
       <c r="K6">
-        <v>1.02328672334728</v>
+        <v>1.035717248616266</v>
       </c>
       <c r="L6">
-        <v>1.009450391273725</v>
+        <v>1.033148665828725</v>
       </c>
       <c r="M6">
-        <v>1.009005686874495</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.037115760379867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9917717410139523</v>
+        <v>1.010476091763512</v>
       </c>
       <c r="D7">
-        <v>1.011153804185362</v>
+        <v>1.024121756539203</v>
       </c>
       <c r="E7">
-        <v>0.9969239652819412</v>
+        <v>1.021160519153184</v>
       </c>
       <c r="F7">
-        <v>0.9959108887324882</v>
+        <v>1.024918180167239</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041337929638864</v>
+        <v>1.043393540634225</v>
       </c>
       <c r="J7">
-        <v>1.0113821257088</v>
+        <v>1.029609567900883</v>
       </c>
       <c r="K7">
-        <v>1.021116494095965</v>
+        <v>1.033934608814771</v>
       </c>
       <c r="L7">
-        <v>1.007056643658657</v>
+        <v>1.031007173052704</v>
       </c>
       <c r="M7">
-        <v>1.006055899406775</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.034721982606978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782385393520154</v>
+        <v>0.9986906723806845</v>
       </c>
       <c r="D8">
-        <v>1.000450012944835</v>
+        <v>1.015217838316635</v>
       </c>
       <c r="E8">
-        <v>0.9852040971440797</v>
+        <v>1.010690973173612</v>
       </c>
       <c r="F8">
-        <v>0.9817494833422818</v>
+        <v>1.013356883715163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036576560820473</v>
+        <v>1.04020229181097</v>
       </c>
       <c r="J8">
-        <v>1.000497395183408</v>
+        <v>1.020336923742182</v>
       </c>
       <c r="K8">
-        <v>1.01162389196767</v>
+        <v>1.026195545568908</v>
       </c>
       <c r="L8">
-        <v>0.9965882897913378</v>
+        <v>1.021728049903512</v>
       </c>
       <c r="M8">
-        <v>0.9931824792491469</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.024358916778928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9517913705814891</v>
+        <v>0.9761193370820715</v>
       </c>
       <c r="D9">
-        <v>0.9795681055980855</v>
+        <v>0.9981877534341247</v>
       </c>
       <c r="E9">
-        <v>0.9623200487343514</v>
+        <v>0.9907009562710166</v>
       </c>
       <c r="F9">
-        <v>0.9541484600747048</v>
+        <v>0.9912995887281744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027123086809959</v>
+        <v>1.03397488983003</v>
       </c>
       <c r="J9">
-        <v>0.9791693987604624</v>
+        <v>1.002544512171866</v>
       </c>
       <c r="K9">
-        <v>0.9930016089874187</v>
+        <v>1.011310301662876</v>
       </c>
       <c r="L9">
-        <v>0.9760555460812597</v>
+        <v>1.003946727487351</v>
       </c>
       <c r="M9">
-        <v>0.9680319964873583</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.004535419083241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9318679228400119</v>
+        <v>0.9595658519220372</v>
       </c>
       <c r="D10">
-        <v>0.9638824227292047</v>
+        <v>0.9857289796681961</v>
       </c>
       <c r="E10">
-        <v>0.9451086562652032</v>
+        <v>0.9760932773734995</v>
       </c>
       <c r="F10">
-        <v>0.9334092881475554</v>
+        <v>0.9751898482540563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019907598330454</v>
+        <v>1.029335876618203</v>
       </c>
       <c r="J10">
-        <v>0.9630721927573094</v>
+        <v>0.9894809287527263</v>
       </c>
       <c r="K10">
-        <v>0.9789359181315516</v>
+        <v>1.000360772705505</v>
       </c>
       <c r="L10">
-        <v>0.9605451418704206</v>
+        <v>0.9909080206742089</v>
       </c>
       <c r="M10">
-        <v>0.9490947891505144</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>0.9900219875304546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9225322140062477</v>
+        <v>0.9519588040070115</v>
       </c>
       <c r="D11">
-        <v>0.9565492381413709</v>
+        <v>0.9800151508015218</v>
       </c>
       <c r="E11">
-        <v>0.937054754784399</v>
+        <v>0.9693959217566548</v>
       </c>
       <c r="F11">
-        <v>0.923704740120033</v>
+        <v>0.9678049811607277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016506750896141</v>
+        <v>1.027188897889773</v>
       </c>
       <c r="J11">
-        <v>0.955524870251688</v>
+        <v>0.9834763324575516</v>
       </c>
       <c r="K11">
-        <v>0.972339882873888</v>
+        <v>0.9953240564088131</v>
       </c>
       <c r="L11">
-        <v>0.953270067438915</v>
+        <v>0.9849190228589475</v>
       </c>
       <c r="M11">
-        <v>0.9402247136264116</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.9833607066180737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.918939365232276</v>
+        <v>0.949058614076591</v>
       </c>
       <c r="D12">
-        <v>0.9537302347688449</v>
+        <v>0.9778389071820834</v>
       </c>
       <c r="E12">
-        <v>0.9339573449077112</v>
+        <v>0.9668451867049735</v>
       </c>
       <c r="F12">
-        <v>0.9199720143754582</v>
+        <v>0.9649924849518922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015195235577418</v>
+        <v>1.026368283032554</v>
       </c>
       <c r="J12">
-        <v>0.9526199029539111</v>
+        <v>0.981187110019339</v>
       </c>
       <c r="K12">
-        <v>0.9698010254751189</v>
+        <v>0.9934033612449595</v>
       </c>
       <c r="L12">
-        <v>0.950469497079321</v>
+        <v>0.9826363926441087</v>
       </c>
       <c r="M12">
-        <v>0.9368117247204282</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9808225770337573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9197160615265011</v>
+        <v>0.9496842460819366</v>
       </c>
       <c r="D13">
-        <v>0.9543394875927032</v>
+        <v>0.9783082640095333</v>
       </c>
       <c r="E13">
-        <v>0.9346268329085032</v>
+        <v>0.9673953097634117</v>
       </c>
       <c r="F13">
-        <v>0.9207788548597847</v>
+        <v>0.9655990605715574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015478873176182</v>
+        <v>1.026545397126855</v>
       </c>
       <c r="J13">
-        <v>0.9532479056389185</v>
+        <v>0.9816809379405229</v>
       </c>
       <c r="K13">
-        <v>0.9703498809396793</v>
+        <v>0.9938177104259809</v>
       </c>
       <c r="L13">
-        <v>0.9510749477843415</v>
+        <v>0.9831287690451495</v>
       </c>
       <c r="M13">
-        <v>0.9375495069913844</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9813700336552993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9222379068952942</v>
+        <v>0.9517206506241305</v>
       </c>
       <c r="D14">
-        <v>0.9563182521213675</v>
+        <v>0.9798363990539196</v>
       </c>
       <c r="E14">
-        <v>0.9368009851697044</v>
+        <v>0.9691864091652648</v>
       </c>
       <c r="F14">
-        <v>0.9233989329262405</v>
+        <v>0.9675739669098644</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016399371112013</v>
+        <v>1.027121552688568</v>
       </c>
       <c r="J14">
-        <v>0.9552869164241283</v>
+        <v>0.9832883474713292</v>
       </c>
       <c r="K14">
-        <v>0.9721319180302384</v>
+        <v>0.9951663428245574</v>
       </c>
       <c r="L14">
-        <v>0.9530406726540864</v>
+        <v>0.984731566025882</v>
       </c>
       <c r="M14">
-        <v>0.9399451254870489</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9831522527478015</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9237744725408749</v>
+        <v>0.9529651775579413</v>
       </c>
       <c r="D15">
-        <v>0.957524353167196</v>
+        <v>0.9807705987073312</v>
       </c>
       <c r="E15">
-        <v>0.9381259954878135</v>
+        <v>0.9702813755255841</v>
       </c>
       <c r="F15">
-        <v>0.9249956239696604</v>
+        <v>0.9687813091992097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016959889570091</v>
+        <v>1.027473398033785</v>
       </c>
       <c r="J15">
-        <v>0.9565292504768326</v>
+        <v>0.9842707103219324</v>
       </c>
       <c r="K15">
-        <v>0.9732176817334964</v>
+        <v>0.9959904963694661</v>
       </c>
       <c r="L15">
-        <v>0.95423830525298</v>
+        <v>0.9857111951565676</v>
       </c>
       <c r="M15">
-        <v>0.9414048715065926</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9842416396106219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9324710847815115</v>
+        <v>0.9600607534234266</v>
       </c>
       <c r="D16">
-        <v>0.9643565985203464</v>
+        <v>0.9861009823887248</v>
       </c>
       <c r="E16">
-        <v>0.94562926470967</v>
+        <v>0.976529338960352</v>
       </c>
       <c r="F16">
-        <v>0.9340365577769053</v>
+        <v>0.9756706898907168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020126938249207</v>
+        <v>1.029475259763691</v>
       </c>
       <c r="J16">
-        <v>0.9635597417700423</v>
+        <v>0.9898715688280669</v>
       </c>
       <c r="K16">
-        <v>0.9793620014002712</v>
+        <v>1.000688375086302</v>
       </c>
       <c r="L16">
-        <v>0.9610150483614239</v>
+        <v>0.9912977331244771</v>
       </c>
       <c r="M16">
-        <v>0.9496679493407453</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.990455548527577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9377247425303664</v>
+        <v>0.9643884238605583</v>
       </c>
       <c r="D17">
-        <v>0.9684886821671361</v>
+        <v>0.9893552958252948</v>
       </c>
       <c r="E17">
-        <v>0.9501651268906359</v>
+        <v>0.9803442493296545</v>
       </c>
       <c r="F17">
-        <v>0.9395016865822307</v>
+        <v>0.9798774814377516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022035264795041</v>
+        <v>1.030692422379636</v>
       </c>
       <c r="J17">
-        <v>0.9678059170336756</v>
+        <v>0.9932874009706355</v>
       </c>
       <c r="K17">
-        <v>0.9830727375732325</v>
+        <v>1.003552575495968</v>
       </c>
       <c r="L17">
-        <v>0.9651072556179141</v>
+        <v>0.994705921691625</v>
       </c>
       <c r="M17">
-        <v>0.9546606864531814</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9942477766340918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407222091362935</v>
+        <v>0.9668709536487917</v>
       </c>
       <c r="D18">
-        <v>0.9708477335906671</v>
+        <v>0.9912231457952306</v>
       </c>
       <c r="E18">
-        <v>0.9527540318643035</v>
+        <v>0.9825340604793259</v>
       </c>
       <c r="F18">
-        <v>0.9426210349457583</v>
+        <v>0.9822923521196899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023122215277026</v>
+        <v>1.031389212996374</v>
       </c>
       <c r="J18">
-        <v>0.970228129602116</v>
+        <v>0.9952467244654962</v>
       </c>
       <c r="K18">
-        <v>0.9851893902111728</v>
+        <v>1.005195118737354</v>
       </c>
       <c r="L18">
-        <v>0.9674413699677283</v>
+        <v>0.9966612468755269</v>
       </c>
       <c r="M18">
-        <v>0.9575095974449302</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9964239072041219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9417334120055882</v>
+        <v>0.9677105904624181</v>
       </c>
       <c r="D19">
-        <v>0.9716438028675247</v>
+        <v>0.9918550520481665</v>
       </c>
       <c r="E19">
-        <v>0.9536275587169462</v>
+        <v>0.9832749275538193</v>
       </c>
       <c r="F19">
-        <v>0.9436735615098483</v>
+        <v>0.983109384214286</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02348858104265</v>
+        <v>1.031624633407118</v>
       </c>
       <c r="J19">
-        <v>0.9710451874931416</v>
+        <v>0.9959093737971896</v>
       </c>
       <c r="K19">
-        <v>0.9859033528341825</v>
+        <v>1.005750567467403</v>
       </c>
       <c r="L19">
-        <v>0.9682286642633301</v>
+        <v>0.9973226089379866</v>
       </c>
       <c r="M19">
-        <v>0.9584707342116944</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9971600353907348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9371681146860035</v>
+        <v>0.9639284789115623</v>
       </c>
       <c r="D20">
-        <v>0.9680507254456492</v>
+        <v>0.9890093160618402</v>
       </c>
       <c r="E20">
-        <v>0.9496844451092648</v>
+        <v>0.9799386505731239</v>
       </c>
       <c r="F20">
-        <v>0.938922524860029</v>
+        <v>0.97943020682743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021833267003094</v>
+        <v>1.030563209231687</v>
       </c>
       <c r="J20">
-        <v>0.9673560761633316</v>
+        <v>0.9929243791369483</v>
       </c>
       <c r="K20">
-        <v>0.9826796329872755</v>
+        <v>1.003248216222414</v>
       </c>
       <c r="L20">
-        <v>0.9646737538537717</v>
+        <v>0.9943436718747698</v>
       </c>
       <c r="M20">
-        <v>0.9541316698683945</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.993844658598363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9214989160622252</v>
+        <v>0.9511231166060293</v>
       </c>
       <c r="D21">
-        <v>0.9557383107331898</v>
+        <v>0.9793879416924703</v>
       </c>
       <c r="E21">
-        <v>0.9361638180451166</v>
+        <v>0.9686607791585982</v>
       </c>
       <c r="F21">
-        <v>0.9226310993025828</v>
+        <v>0.9669943940310284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016129703555027</v>
+        <v>1.026952548917236</v>
       </c>
       <c r="J21">
-        <v>0.9546894210129789</v>
+        <v>0.9828166888364722</v>
       </c>
       <c r="K21">
-        <v>0.9716097239919589</v>
+        <v>0.9947706286320193</v>
       </c>
       <c r="L21">
-        <v>0.9524646626599044</v>
+        <v>0.9842612429717912</v>
       </c>
       <c r="M21">
-        <v>0.9392431043613433</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9826292604563457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.910909685652956</v>
+        <v>0.9426347624658187</v>
       </c>
       <c r="D22">
-        <v>0.9474367956457777</v>
+        <v>0.973023106548378</v>
       </c>
       <c r="E22">
-        <v>0.9270395497431896</v>
+        <v>0.9612006321824802</v>
       </c>
       <c r="F22">
-        <v>0.9116336435443303</v>
+        <v>0.9587687122970265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012259475451261</v>
+        <v>1.024547041038333</v>
       </c>
       <c r="J22">
-        <v>0.9461272724430591</v>
+        <v>0.9761168874204003</v>
       </c>
       <c r="K22">
-        <v>0.9641267628851565</v>
+        <v>0.9891486169948454</v>
       </c>
       <c r="L22">
-        <v>0.9442095274905641</v>
+        <v>0.9775819912724635</v>
       </c>
       <c r="M22">
-        <v>0.9291854218922673</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9752037415973182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9166007792747277</v>
+        <v>0.9471793541122149</v>
       </c>
       <c r="D23">
-        <v>0.9518963353174461</v>
+        <v>0.9764294160410578</v>
       </c>
       <c r="E23">
-        <v>0.9319419141661647</v>
+        <v>0.9651931515664512</v>
       </c>
       <c r="F23">
-        <v>0.9175429745696223</v>
+        <v>0.963170925317567</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014340849210097</v>
+        <v>1.025835983764644</v>
       </c>
       <c r="J23">
-        <v>0.9507289962665004</v>
+        <v>0.9797037849560508</v>
       </c>
       <c r="K23">
-        <v>0.9681484364314966</v>
+        <v>0.992158708403005</v>
       </c>
       <c r="L23">
-        <v>0.9486464407337811</v>
+        <v>0.9811575239505868</v>
       </c>
       <c r="M23">
-        <v>0.934590415553904</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.979178377715503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9374198362402414</v>
+        <v>0.9641364365567464</v>
       </c>
       <c r="D24">
-        <v>0.9682487762150139</v>
+        <v>0.9891657427375129</v>
       </c>
       <c r="E24">
-        <v>0.949901818874476</v>
+        <v>0.9801220319484127</v>
       </c>
       <c r="F24">
-        <v>0.9391844329951623</v>
+        <v>0.9796324305398455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021924621411702</v>
+        <v>1.030621635585969</v>
       </c>
       <c r="J24">
-        <v>0.9675595072590795</v>
+        <v>0.9930885148042266</v>
       </c>
       <c r="K24">
-        <v>0.9828574066760516</v>
+        <v>1.003385829505266</v>
       </c>
       <c r="L24">
-        <v>0.9648697967697225</v>
+        <v>0.9945074572844694</v>
       </c>
       <c r="M24">
-        <v>0.9543709039302162</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.99402692042855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9589860636804923</v>
+        <v>0.9821957830202142</v>
       </c>
       <c r="D25">
-        <v>0.9852429203501243</v>
+        <v>1.002768433673566</v>
       </c>
       <c r="E25">
-        <v>0.9685419593568787</v>
+        <v>0.9960744559122433</v>
       </c>
       <c r="F25">
-        <v>0.9616483598248841</v>
+        <v>0.9972270917789406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029711069840781</v>
+        <v>1.035664031266904</v>
       </c>
       <c r="J25">
-        <v>0.984977184566821</v>
+        <v>1.00733755391732</v>
       </c>
       <c r="K25">
-        <v>0.9980747237621099</v>
+        <v>1.015323924755277</v>
       </c>
       <c r="L25">
-        <v>0.9816490746597666</v>
+        <v>1.008734018095532</v>
       </c>
       <c r="M25">
-        <v>0.9748727183564421</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.009868606630476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955435077519086</v>
+        <v>0.9968982722317651</v>
       </c>
       <c r="D2">
-        <v>1.012841159007496</v>
+        <v>1.015941455180602</v>
       </c>
       <c r="E2">
-        <v>1.007898869219199</v>
+        <v>1.009955452491988</v>
       </c>
       <c r="F2">
-        <v>1.010274849014586</v>
+        <v>1.012193651005185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039342332433908</v>
+        <v>1.044606471014204</v>
       </c>
       <c r="J2">
-        <v>1.017858333704911</v>
+        <v>1.019172152889071</v>
       </c>
       <c r="K2">
-        <v>1.024124448547239</v>
+        <v>1.027183079320117</v>
       </c>
       <c r="L2">
-        <v>1.019249246258022</v>
+        <v>1.021277812741673</v>
       </c>
       <c r="M2">
-        <v>1.021592871008517</v>
+        <v>1.023485683030342</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004719312456722</v>
+        <v>1.001984788635084</v>
       </c>
       <c r="D3">
-        <v>1.019771880075303</v>
+        <v>1.019755775547703</v>
       </c>
       <c r="E3">
-        <v>1.016043797838084</v>
+        <v>1.01436554591732</v>
       </c>
       <c r="F3">
-        <v>1.019266919127539</v>
+        <v>1.017295568761852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041840761473575</v>
+        <v>1.04604528573628</v>
       </c>
       <c r="J3">
-        <v>1.025082145840056</v>
+        <v>1.022421492161353</v>
       </c>
       <c r="K3">
-        <v>1.030157875137156</v>
+        <v>1.030141966859066</v>
       </c>
       <c r="L3">
-        <v>1.026475429723251</v>
+        <v>1.024817858178942</v>
       </c>
       <c r="M3">
-        <v>1.029659071303678</v>
+        <v>1.027711830869711</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010444382798218</v>
+        <v>1.005200052344646</v>
       </c>
       <c r="D4">
-        <v>1.024097794682544</v>
+        <v>1.022165620098975</v>
       </c>
       <c r="E4">
-        <v>1.021132321617819</v>
+        <v>1.017159716363014</v>
       </c>
       <c r="F4">
-        <v>1.024887031272427</v>
+        <v>1.020529033826446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043385021465338</v>
+        <v>1.046938328001308</v>
       </c>
       <c r="J4">
-        <v>1.029584641663628</v>
+        <v>1.024471669161899</v>
       </c>
       <c r="K4">
-        <v>1.033913826349401</v>
+        <v>1.03200368818896</v>
       </c>
       <c r="L4">
-        <v>1.030982216701744</v>
+        <v>1.027055357815374</v>
       </c>
       <c r="M4">
-        <v>1.034694091179666</v>
+        <v>1.030385847730063</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012803838012204</v>
+        <v>1.006534260578422</v>
       </c>
       <c r="D5">
-        <v>1.025880837764629</v>
+        <v>1.023165237383784</v>
       </c>
       <c r="E5">
-        <v>1.023230917386143</v>
+        <v>1.01832069899466</v>
       </c>
       <c r="F5">
-        <v>1.02720546101712</v>
+        <v>1.021872798742895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044017863818576</v>
+        <v>1.047304892690108</v>
       </c>
       <c r="J5">
-        <v>1.03143903043452</v>
+        <v>1.025321462408045</v>
       </c>
       <c r="K5">
-        <v>1.035459595686427</v>
+        <v>1.03277409328222</v>
       </c>
       <c r="L5">
-        <v>1.032839043010559</v>
+        <v>1.027983739566825</v>
       </c>
       <c r="M5">
-        <v>1.036769608623587</v>
+        <v>1.031496048335865</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013197317256866</v>
+        <v>1.006757274586779</v>
       </c>
       <c r="D6">
-        <v>1.026178198572847</v>
+        <v>1.023332300141482</v>
       </c>
       <c r="E6">
-        <v>1.023580977673668</v>
+        <v>1.018514845831766</v>
       </c>
       <c r="F6">
-        <v>1.027592227295928</v>
+        <v>1.02209752721051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044123187443932</v>
+        <v>1.047365926482923</v>
       </c>
       <c r="J6">
-        <v>1.031748207537029</v>
+        <v>1.025463448987449</v>
       </c>
       <c r="K6">
-        <v>1.035717248616266</v>
+        <v>1.032902739700512</v>
       </c>
       <c r="L6">
-        <v>1.033148665828725</v>
+        <v>1.028138912731056</v>
       </c>
       <c r="M6">
-        <v>1.037115760379867</v>
+        <v>1.031681652860005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010476091763512</v>
+        <v>1.005217947898091</v>
       </c>
       <c r="D7">
-        <v>1.024121756539203</v>
+        <v>1.022179029403329</v>
       </c>
       <c r="E7">
-        <v>1.021160519153184</v>
+        <v>1.017175282546891</v>
       </c>
       <c r="F7">
-        <v>1.024918180167239</v>
+        <v>1.020547049676734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043393540634225</v>
+        <v>1.04694326062967</v>
       </c>
       <c r="J7">
-        <v>1.029609567900883</v>
+        <v>1.024483071132749</v>
       </c>
       <c r="K7">
-        <v>1.033934608814771</v>
+        <v>1.032014030054624</v>
       </c>
       <c r="L7">
-        <v>1.031007173052704</v>
+        <v>1.027067810492879</v>
       </c>
       <c r="M7">
-        <v>1.034721982606978</v>
+        <v>1.030400736420164</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9986906723806845</v>
+        <v>0.9986334775627295</v>
       </c>
       <c r="D8">
-        <v>1.015217838316635</v>
+        <v>1.017242880579954</v>
       </c>
       <c r="E8">
-        <v>1.010690973173612</v>
+        <v>1.011458514028146</v>
       </c>
       <c r="F8">
-        <v>1.013356883715163</v>
+        <v>1.01393231422637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04020229181097</v>
+        <v>1.045100722707335</v>
       </c>
       <c r="J8">
-        <v>1.020336923742182</v>
+        <v>1.020281394126962</v>
       </c>
       <c r="K8">
-        <v>1.026195545568908</v>
+        <v>1.028194243706448</v>
       </c>
       <c r="L8">
-        <v>1.021728049903512</v>
+        <v>1.022485477613005</v>
       </c>
       <c r="M8">
-        <v>1.024358916778928</v>
+        <v>1.024926813495429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9761193370820715</v>
+        <v>0.9864137555609626</v>
       </c>
       <c r="D9">
-        <v>0.9981877534341247</v>
+        <v>1.008075865534444</v>
       </c>
       <c r="E9">
-        <v>0.9907009562710166</v>
+        <v>1.000903231564959</v>
       </c>
       <c r="F9">
-        <v>0.9912995887281744</v>
+        <v>1.001725617699468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03397488983003</v>
+        <v>1.041552588017592</v>
       </c>
       <c r="J9">
-        <v>1.002544512171866</v>
+        <v>1.012455573069904</v>
       </c>
       <c r="K9">
-        <v>1.011310301662876</v>
+        <v>1.021039262338979</v>
       </c>
       <c r="L9">
-        <v>1.003946727487351</v>
+        <v>1.013981671445362</v>
       </c>
       <c r="M9">
-        <v>1.004535419083241</v>
+        <v>1.014790759865299</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9595658519220372</v>
+        <v>0.9778002257605394</v>
       </c>
       <c r="D10">
-        <v>0.9857289796681961</v>
+        <v>1.001615298840158</v>
       </c>
       <c r="E10">
-        <v>0.9760932773734995</v>
+        <v>0.9935030663896002</v>
       </c>
       <c r="F10">
-        <v>0.9751898482540563</v>
+        <v>0.9931704527850553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029335876618203</v>
+        <v>1.038968590795196</v>
       </c>
       <c r="J10">
-        <v>0.9894809287527263</v>
+        <v>1.006923183387207</v>
       </c>
       <c r="K10">
-        <v>1.000360772705505</v>
+        <v>1.015955449685544</v>
       </c>
       <c r="L10">
-        <v>0.9909080206742089</v>
+        <v>1.007990624223699</v>
       </c>
       <c r="M10">
-        <v>0.9900219875304546</v>
+        <v>1.007664121474473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9519588040070115</v>
+        <v>0.9739468042763677</v>
       </c>
       <c r="D11">
-        <v>0.9800151508015218</v>
+        <v>0.9987266155749144</v>
       </c>
       <c r="E11">
-        <v>0.9693959217566548</v>
+        <v>0.9902028222277494</v>
       </c>
       <c r="F11">
-        <v>0.9678049811607277</v>
+        <v>0.9893553766043279</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027188897889773</v>
+        <v>1.037793904865175</v>
       </c>
       <c r="J11">
-        <v>0.9834763324575516</v>
+        <v>1.004445078813236</v>
       </c>
       <c r="K11">
-        <v>0.9953240564088131</v>
+        <v>1.013672586081272</v>
       </c>
       <c r="L11">
-        <v>0.9849190228589475</v>
+        <v>1.005311894639236</v>
       </c>
       <c r="M11">
-        <v>0.9833607066180737</v>
+        <v>1.004480866137006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949058614076591</v>
+        <v>0.9724956795452778</v>
       </c>
       <c r="D12">
-        <v>0.9778389071820834</v>
+        <v>0.9976391464889454</v>
       </c>
       <c r="E12">
-        <v>0.9668451867049735</v>
+        <v>0.9889616462544568</v>
       </c>
       <c r="F12">
-        <v>0.9649924849518922</v>
+        <v>0.9879205826082141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026368283032554</v>
+        <v>1.037348822163985</v>
       </c>
       <c r="J12">
-        <v>0.981187110019339</v>
+        <v>1.003511473718124</v>
       </c>
       <c r="K12">
-        <v>0.9934033612449595</v>
+        <v>1.012811716928042</v>
       </c>
       <c r="L12">
-        <v>0.9826363926441087</v>
+        <v>1.004303423894751</v>
       </c>
       <c r="M12">
-        <v>0.9808225770337573</v>
+        <v>1.003282922865038</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9496842460819366</v>
+        <v>0.9728078668855652</v>
       </c>
       <c r="D13">
-        <v>0.9783082640095333</v>
+        <v>0.9978730809237413</v>
       </c>
       <c r="E13">
-        <v>0.9673953097634117</v>
+        <v>0.989228591284009</v>
       </c>
       <c r="F13">
-        <v>0.9655990605715574</v>
+        <v>0.9882291703583687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026545397126855</v>
+        <v>1.037444696225106</v>
       </c>
       <c r="J13">
-        <v>0.9816809379405229</v>
+        <v>1.003712341505857</v>
       </c>
       <c r="K13">
-        <v>0.9938177104259809</v>
+        <v>1.012996971803076</v>
       </c>
       <c r="L13">
-        <v>0.9831287690451495</v>
+        <v>1.004520366897652</v>
       </c>
       <c r="M13">
-        <v>0.9813700336552993</v>
+        <v>1.003540604465983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9517206506241305</v>
+        <v>0.9738272649568228</v>
       </c>
       <c r="D14">
-        <v>0.9798363990539196</v>
+        <v>0.9986370252326974</v>
       </c>
       <c r="E14">
-        <v>0.9691864091652648</v>
+        <v>0.9901005442328205</v>
       </c>
       <c r="F14">
-        <v>0.9675739669098644</v>
+        <v>0.989237143842335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027121552688568</v>
+        <v>1.037757294971767</v>
       </c>
       <c r="J14">
-        <v>0.9832883474713292</v>
+        <v>1.004368178915395</v>
       </c>
       <c r="K14">
-        <v>0.9951663428245574</v>
+        <v>1.013601693788581</v>
       </c>
       <c r="L14">
-        <v>0.984731566025882</v>
+        <v>1.005228813598664</v>
       </c>
       <c r="M14">
-        <v>0.9831522527478015</v>
+        <v>1.004382166330893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9529651775579413</v>
+        <v>0.9744526892241926</v>
       </c>
       <c r="D15">
-        <v>0.9807705987073312</v>
+        <v>0.9991057729404441</v>
       </c>
       <c r="E15">
-        <v>0.9702813755255841</v>
+        <v>0.9906357250053509</v>
       </c>
       <c r="F15">
-        <v>0.9687813091992097</v>
+        <v>0.9898558095820584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027473398033785</v>
+        <v>1.037948726089871</v>
       </c>
       <c r="J15">
-        <v>0.9842707103219324</v>
+        <v>1.004770499848569</v>
       </c>
       <c r="K15">
-        <v>0.9959904963694661</v>
+        <v>1.013972551285857</v>
       </c>
       <c r="L15">
-        <v>0.9857111951565676</v>
+        <v>1.005663501924788</v>
       </c>
       <c r="M15">
-        <v>0.9842416396106219</v>
+        <v>1.004898592570713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9600607534234266</v>
+        <v>0.9780532575906672</v>
       </c>
       <c r="D16">
-        <v>0.9861009823887248</v>
+        <v>1.001805024331794</v>
       </c>
       <c r="E16">
-        <v>0.976529338960352</v>
+        <v>0.9937199959871135</v>
       </c>
       <c r="F16">
-        <v>0.9756706898907168</v>
+        <v>0.9934212254505037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029475259763691</v>
+        <v>1.039045344421019</v>
       </c>
       <c r="J16">
-        <v>0.9898715688280669</v>
+        <v>1.007085847361149</v>
       </c>
       <c r="K16">
-        <v>1.000688375086302</v>
+        <v>1.016105182642135</v>
       </c>
       <c r="L16">
-        <v>0.9912977331244771</v>
+        <v>1.008166556992964</v>
       </c>
       <c r="M16">
-        <v>0.990455548527577</v>
+        <v>1.007873256012055</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643884238605583</v>
+        <v>0.9802778587414288</v>
       </c>
       <c r="D17">
-        <v>0.9893552958252948</v>
+        <v>1.003473241742269</v>
       </c>
       <c r="E17">
-        <v>0.9803442493296545</v>
+        <v>0.9956283787890394</v>
       </c>
       <c r="F17">
-        <v>0.9798774814377516</v>
+        <v>0.9956273596370576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030692422379636</v>
+        <v>1.039718034290466</v>
       </c>
       <c r="J17">
-        <v>0.9932874009706355</v>
+        <v>1.008515610806309</v>
       </c>
       <c r="K17">
-        <v>1.003552575495968</v>
+        <v>1.017420645284151</v>
       </c>
       <c r="L17">
-        <v>0.994705921691625</v>
+        <v>1.009713495008209</v>
       </c>
       <c r="M17">
-        <v>0.9942477766340918</v>
+        <v>1.009712493929848</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9668709536487917</v>
+        <v>0.9815635818500617</v>
       </c>
       <c r="D18">
-        <v>0.9912231457952306</v>
+        <v>1.004437539674375</v>
       </c>
       <c r="E18">
-        <v>0.9825340604793259</v>
+        <v>0.9967323159843821</v>
       </c>
       <c r="F18">
-        <v>0.9822923521196899</v>
+        <v>0.9969035636278074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031389212996374</v>
+        <v>1.040105045699124</v>
       </c>
       <c r="J18">
-        <v>0.9952467244654962</v>
+        <v>1.009341655480986</v>
       </c>
       <c r="K18">
-        <v>1.005195118737354</v>
+        <v>1.018180112520404</v>
       </c>
       <c r="L18">
-        <v>0.9966612468755269</v>
+        <v>1.010607693308789</v>
       </c>
       <c r="M18">
-        <v>0.9964239072041219</v>
+        <v>1.010775960512458</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9677105904624181</v>
+        <v>0.9820000053951522</v>
       </c>
       <c r="D19">
-        <v>0.9918550520481665</v>
+        <v>1.004764879684502</v>
       </c>
       <c r="E19">
-        <v>0.9832749275538193</v>
+        <v>0.9971071975647792</v>
       </c>
       <c r="F19">
-        <v>0.983109384214286</v>
+        <v>0.9973369502740017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031624633407118</v>
+        <v>1.040236108625683</v>
       </c>
       <c r="J19">
-        <v>0.9959093737971896</v>
+        <v>1.009621994393172</v>
       </c>
       <c r="K19">
-        <v>1.005750567467403</v>
+        <v>1.018437764050165</v>
       </c>
       <c r="L19">
-        <v>0.9973226089379866</v>
+        <v>1.010911239409858</v>
       </c>
       <c r="M19">
-        <v>0.9971600353907348</v>
+        <v>1.011137019101342</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9639284789115623</v>
+        <v>0.9800404140976686</v>
       </c>
       <c r="D20">
-        <v>0.9890093160618402</v>
+        <v>1.003295167776731</v>
       </c>
       <c r="E20">
-        <v>0.9799386505731239</v>
+        <v>0.9954245842796456</v>
       </c>
       <c r="F20">
-        <v>0.97943020682743</v>
+        <v>0.9953917659353337</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030563209231687</v>
+        <v>1.039646417725451</v>
       </c>
       <c r="J20">
-        <v>0.9929243791369483</v>
+        <v>1.008363034163501</v>
       </c>
       <c r="K20">
-        <v>1.003248216222414</v>
+        <v>1.017280322046455</v>
       </c>
       <c r="L20">
-        <v>0.9943436718747698</v>
+        <v>1.009548366819166</v>
       </c>
       <c r="M20">
-        <v>0.993844658598363</v>
+        <v>1.009516132476715</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9511231166060293</v>
+        <v>0.9735276342108508</v>
       </c>
       <c r="D21">
-        <v>0.9793879416924703</v>
+        <v>0.9984124690699516</v>
       </c>
       <c r="E21">
-        <v>0.9686607791585982</v>
+        <v>0.989844206342274</v>
       </c>
       <c r="F21">
-        <v>0.9669943940310284</v>
+        <v>0.98894081866838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026952548917236</v>
+        <v>1.037665487149266</v>
       </c>
       <c r="J21">
-        <v>0.9828166888364722</v>
+        <v>1.004175419636887</v>
       </c>
       <c r="K21">
-        <v>0.9947706286320193</v>
+        <v>1.013423980258561</v>
       </c>
       <c r="L21">
-        <v>0.9842612429717912</v>
+        <v>1.005020572048989</v>
       </c>
       <c r="M21">
-        <v>0.9826292604563457</v>
+        <v>1.004134784029048</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9426347624658187</v>
+        <v>0.9693176031420516</v>
       </c>
       <c r="D22">
-        <v>0.973023106548378</v>
+        <v>0.995258291790345</v>
       </c>
       <c r="E22">
-        <v>0.9612006321824802</v>
+        <v>0.9862464688759749</v>
       </c>
       <c r="F22">
-        <v>0.9587687122970265</v>
+        <v>0.9847818132230941</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024547041038333</v>
+        <v>1.036369155120323</v>
       </c>
       <c r="J22">
-        <v>0.9761168874204003</v>
+        <v>1.001466148380914</v>
       </c>
       <c r="K22">
-        <v>0.9891486169948454</v>
+        <v>1.010924271742496</v>
       </c>
       <c r="L22">
-        <v>0.9775819912724635</v>
+        <v>1.002095399877123</v>
       </c>
       <c r="M22">
-        <v>0.9752037415973182</v>
+        <v>1.000660896109249</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9471793541122149</v>
+        <v>0.9715607693251878</v>
       </c>
       <c r="D23">
-        <v>0.9764294160410578</v>
+        <v>0.9969386422412053</v>
       </c>
       <c r="E23">
-        <v>0.9651931515664512</v>
+        <v>0.988162469092513</v>
       </c>
       <c r="F23">
-        <v>0.963170925317567</v>
+        <v>0.9869967334652507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025835983764644</v>
+        <v>1.037061315940469</v>
       </c>
       <c r="J23">
-        <v>0.9797037849560508</v>
+        <v>1.002909880035124</v>
       </c>
       <c r="K23">
-        <v>0.992158708403005</v>
+        <v>1.012256766183647</v>
       </c>
       <c r="L23">
-        <v>0.9811575239505868</v>
+        <v>1.003653790177305</v>
       </c>
       <c r="M23">
-        <v>0.979178377715503</v>
+        <v>1.002511365139481</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9641364365567464</v>
+        <v>0.9801477416398983</v>
       </c>
       <c r="D24">
-        <v>0.9891657427375129</v>
+        <v>1.003375658704373</v>
       </c>
       <c r="E24">
-        <v>0.9801220319484127</v>
+        <v>0.9955166985802074</v>
       </c>
       <c r="F24">
-        <v>0.9796324305398455</v>
+        <v>0.99549825325576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030621635585969</v>
+        <v>1.039678794696629</v>
       </c>
       <c r="J24">
-        <v>0.9930885148042266</v>
+        <v>1.008432001378389</v>
       </c>
       <c r="K24">
-        <v>1.003385829505266</v>
+        <v>1.017343752194515</v>
       </c>
       <c r="L24">
-        <v>0.9945074572844694</v>
+        <v>1.009623006128913</v>
       </c>
       <c r="M24">
-        <v>0.99402692042855</v>
+        <v>1.00960488853</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821957830202142</v>
+        <v>0.9896510954417413</v>
       </c>
       <c r="D25">
-        <v>1.002768433673566</v>
+        <v>1.010504666676107</v>
       </c>
       <c r="E25">
-        <v>0.9960744559122433</v>
+        <v>1.003692984825908</v>
       </c>
       <c r="F25">
-        <v>0.9972270917789406</v>
+        <v>1.004951234772113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035664031266904</v>
+        <v>1.042507145162412</v>
       </c>
       <c r="J25">
-        <v>1.00733755391732</v>
+        <v>1.014531832371785</v>
       </c>
       <c r="K25">
-        <v>1.015323924755277</v>
+        <v>1.02294207084322</v>
       </c>
       <c r="L25">
-        <v>1.008734018095532</v>
+        <v>1.016234241195433</v>
       </c>
       <c r="M25">
-        <v>1.009868606630476</v>
+        <v>1.017473172372863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968982722317651</v>
+        <v>1.030688913991657</v>
       </c>
       <c r="D2">
-        <v>1.015941455180602</v>
+        <v>1.033777895261852</v>
       </c>
       <c r="E2">
-        <v>1.009955452491988</v>
+        <v>1.03906820358443</v>
       </c>
       <c r="F2">
-        <v>1.012193651005185</v>
+        <v>1.046966858797792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044606471014204</v>
+        <v>1.031885535942883</v>
       </c>
       <c r="J2">
-        <v>1.019172152889071</v>
+        <v>1.035828773694291</v>
       </c>
       <c r="K2">
-        <v>1.027183079320117</v>
+        <v>1.036579266983557</v>
       </c>
       <c r="L2">
-        <v>1.021277812741673</v>
+        <v>1.041854443255225</v>
       </c>
       <c r="M2">
-        <v>1.023485683030342</v>
+        <v>1.049730814449257</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001984788635084</v>
+        <v>1.031741231226777</v>
       </c>
       <c r="D3">
-        <v>1.019755775547703</v>
+        <v>1.034563260479992</v>
       </c>
       <c r="E3">
-        <v>1.01436554591732</v>
+        <v>1.040038460422521</v>
       </c>
       <c r="F3">
-        <v>1.017295568761852</v>
+        <v>1.048106192718484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04604528573628</v>
+        <v>1.032080558505502</v>
       </c>
       <c r="J3">
-        <v>1.022421492161353</v>
+        <v>1.0365221261378</v>
       </c>
       <c r="K3">
-        <v>1.030141966859066</v>
+        <v>1.037173746211646</v>
       </c>
       <c r="L3">
-        <v>1.024817858178942</v>
+        <v>1.042634420362074</v>
       </c>
       <c r="M3">
-        <v>1.027711830869711</v>
+        <v>1.050681047445338</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005200052344646</v>
+        <v>1.032421978830613</v>
       </c>
       <c r="D4">
-        <v>1.022165620098975</v>
+        <v>1.035070716045394</v>
       </c>
       <c r="E4">
-        <v>1.017159716363014</v>
+        <v>1.040666572577727</v>
       </c>
       <c r="F4">
-        <v>1.020529033826446</v>
+        <v>1.04884400588789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046938328001308</v>
+        <v>1.032204654150423</v>
       </c>
       <c r="J4">
-        <v>1.024471669161899</v>
+        <v>1.036970043100419</v>
       </c>
       <c r="K4">
-        <v>1.03200368818896</v>
+        <v>1.03755703308098</v>
       </c>
       <c r="L4">
-        <v>1.027055357815374</v>
+        <v>1.043138792993387</v>
       </c>
       <c r="M4">
-        <v>1.030385847730063</v>
+        <v>1.051295917536339</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006534260578422</v>
+        <v>1.032708124154603</v>
       </c>
       <c r="D5">
-        <v>1.023165237383784</v>
+        <v>1.035283875325801</v>
       </c>
       <c r="E5">
-        <v>1.01832069899466</v>
+        <v>1.04093070032573</v>
       </c>
       <c r="F5">
-        <v>1.021872798742895</v>
+        <v>1.049154323265423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047304892690108</v>
+        <v>1.032256321492679</v>
       </c>
       <c r="J5">
-        <v>1.025321462408045</v>
+        <v>1.037158172758816</v>
       </c>
       <c r="K5">
-        <v>1.03277409328222</v>
+        <v>1.037717835779567</v>
       </c>
       <c r="L5">
-        <v>1.027983739566825</v>
+        <v>1.043350753296416</v>
       </c>
       <c r="M5">
-        <v>1.031496048335865</v>
+        <v>1.051554410195556</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006757274586779</v>
+        <v>1.032756166817261</v>
       </c>
       <c r="D6">
-        <v>1.023332300141482</v>
+        <v>1.035319655422098</v>
       </c>
       <c r="E6">
-        <v>1.018514845831766</v>
+        <v>1.040975052597772</v>
       </c>
       <c r="F6">
-        <v>1.02209752721051</v>
+        <v>1.049206435169524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047365926482923</v>
+        <v>1.032264967188873</v>
       </c>
       <c r="J6">
-        <v>1.025463448987449</v>
+        <v>1.037189750308487</v>
       </c>
       <c r="K6">
-        <v>1.032902739700512</v>
+        <v>1.037744815829531</v>
       </c>
       <c r="L6">
-        <v>1.028138912731056</v>
+        <v>1.04338633778654</v>
       </c>
       <c r="M6">
-        <v>1.031681652860005</v>
+        <v>1.05159781232165</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005217947898091</v>
+        <v>1.032425802479163</v>
       </c>
       <c r="D7">
-        <v>1.022179029403329</v>
+        <v>1.035073564978819</v>
       </c>
       <c r="E7">
-        <v>1.017175282546891</v>
+        <v>1.040670101593319</v>
       </c>
       <c r="F7">
-        <v>1.020547049676734</v>
+        <v>1.048848151810992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04694326062967</v>
+        <v>1.032205346506906</v>
       </c>
       <c r="J7">
-        <v>1.024483071132749</v>
+        <v>1.036972557584637</v>
       </c>
       <c r="K7">
-        <v>1.032014030054624</v>
+        <v>1.037559183036168</v>
       </c>
       <c r="L7">
-        <v>1.027067810492879</v>
+        <v>1.04314162552391</v>
       </c>
       <c r="M7">
-        <v>1.030400736420164</v>
+        <v>1.051299371523062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986334775627295</v>
+        <v>1.031044585274103</v>
       </c>
       <c r="D8">
-        <v>1.017242880579954</v>
+        <v>1.034043463488221</v>
       </c>
       <c r="E8">
-        <v>1.011458514028146</v>
+        <v>1.039396045977316</v>
       </c>
       <c r="F8">
-        <v>1.01393231422637</v>
+        <v>1.047351780276541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045100722707335</v>
+        <v>1.031951878664176</v>
       </c>
       <c r="J8">
-        <v>1.020281394126962</v>
+        <v>1.036063246080658</v>
       </c>
       <c r="K8">
-        <v>1.028194243706448</v>
+        <v>1.036780459657748</v>
       </c>
       <c r="L8">
-        <v>1.022485477613005</v>
+        <v>1.042118107277319</v>
       </c>
       <c r="M8">
-        <v>1.024926813495429</v>
+        <v>1.050051948869959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9864137555609626</v>
+        <v>1.028609376345163</v>
       </c>
       <c r="D9">
-        <v>1.008075865534444</v>
+        <v>1.032222745322431</v>
       </c>
       <c r="E9">
-        <v>1.000903231564959</v>
+        <v>1.037153238831544</v>
       </c>
       <c r="F9">
-        <v>1.001725617699468</v>
+        <v>1.044719485927107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041552588017592</v>
+        <v>1.031489194396967</v>
       </c>
       <c r="J9">
-        <v>1.012455573069904</v>
+        <v>1.03445535414898</v>
       </c>
       <c r="K9">
-        <v>1.021039262338979</v>
+        <v>1.035397694426084</v>
       </c>
       <c r="L9">
-        <v>1.013981671445362</v>
+        <v>1.040312059179624</v>
       </c>
       <c r="M9">
-        <v>1.014790759865299</v>
+        <v>1.047853879540023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778002257605394</v>
+        <v>1.026984992996846</v>
       </c>
       <c r="D10">
-        <v>1.001615298840158</v>
+        <v>1.031005240476399</v>
       </c>
       <c r="E10">
-        <v>0.9935030663896002</v>
+        <v>1.035659554479717</v>
       </c>
       <c r="F10">
-        <v>0.9931704527850553</v>
+        <v>1.042967647965572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038968590795196</v>
+        <v>1.031169976694749</v>
       </c>
       <c r="J10">
-        <v>1.006923183387207</v>
+        <v>1.033379692733725</v>
       </c>
       <c r="K10">
-        <v>1.015955449685544</v>
+        <v>1.034468780174822</v>
       </c>
       <c r="L10">
-        <v>1.007990624223699</v>
+        <v>1.039106369866966</v>
       </c>
       <c r="M10">
-        <v>1.007664121474473</v>
+        <v>1.046388535283523</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739468042763677</v>
+        <v>1.026281395930686</v>
       </c>
       <c r="D11">
-        <v>0.9987266155749144</v>
+        <v>1.030477178504828</v>
       </c>
       <c r="E11">
-        <v>0.9902028222277494</v>
+        <v>1.03501313509336</v>
       </c>
       <c r="F11">
-        <v>0.9893553766043279</v>
+        <v>1.042209798444811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037793904865175</v>
+        <v>1.031029203932895</v>
       </c>
       <c r="J11">
-        <v>1.004445078813236</v>
+        <v>1.032913035308695</v>
       </c>
       <c r="K11">
-        <v>1.013672586081272</v>
+        <v>1.034064877559209</v>
       </c>
       <c r="L11">
-        <v>1.005311894639236</v>
+        <v>1.038583900980823</v>
       </c>
       <c r="M11">
-        <v>1.004480866137006</v>
+        <v>1.045754032877813</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9724956795452778</v>
+        <v>1.026020013776208</v>
       </c>
       <c r="D12">
-        <v>0.9976391464889454</v>
+        <v>1.030280901869584</v>
       </c>
       <c r="E12">
-        <v>0.9889616462544568</v>
+        <v>1.034773079641205</v>
       </c>
       <c r="F12">
-        <v>0.9879205826082141</v>
+        <v>1.041928405461056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037348822163985</v>
+        <v>1.030976531931428</v>
       </c>
       <c r="J12">
-        <v>1.003511473718124</v>
+        <v>1.032739564413446</v>
       </c>
       <c r="K12">
-        <v>1.012811716928042</v>
+        <v>1.033914598514627</v>
       </c>
       <c r="L12">
-        <v>1.004303423894751</v>
+        <v>1.038389773031814</v>
       </c>
       <c r="M12">
-        <v>1.003282922865038</v>
+        <v>1.045518350466792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9728078668855652</v>
+        <v>1.026076082723042</v>
       </c>
       <c r="D13">
-        <v>0.9978730809237413</v>
+        <v>1.030323009790796</v>
       </c>
       <c r="E13">
-        <v>0.989228591284009</v>
+        <v>1.034824569929548</v>
       </c>
       <c r="F13">
-        <v>0.9882291703583687</v>
+        <v>1.041988760415856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037444696225106</v>
+        <v>1.030987847569339</v>
       </c>
       <c r="J13">
-        <v>1.003712341505857</v>
+        <v>1.032776780552771</v>
       </c>
       <c r="K13">
-        <v>1.012996971803076</v>
+        <v>1.033946845262465</v>
       </c>
       <c r="L13">
-        <v>1.004520366897652</v>
+        <v>1.038431416839815</v>
       </c>
       <c r="M13">
-        <v>1.003540604465983</v>
+        <v>1.045568905145192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738272649568228</v>
+        <v>1.026259790715032</v>
       </c>
       <c r="D14">
-        <v>0.9986370252326974</v>
+        <v>1.030460956884818</v>
       </c>
       <c r="E14">
-        <v>0.9901005442328205</v>
+        <v>1.034993290943439</v>
       </c>
       <c r="F14">
-        <v>0.989237143842335</v>
+        <v>1.042186536250796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037757294971767</v>
+        <v>1.031024857854761</v>
       </c>
       <c r="J14">
-        <v>1.004368178915395</v>
+        <v>1.03289869887476</v>
       </c>
       <c r="K14">
-        <v>1.013601693788581</v>
+        <v>1.034052460578181</v>
       </c>
       <c r="L14">
-        <v>1.005228813598664</v>
+        <v>1.038567855522897</v>
       </c>
       <c r="M14">
-        <v>1.004382166330893</v>
+        <v>1.045734551296486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744526892241926</v>
+        <v>1.026372974633472</v>
       </c>
       <c r="D15">
-        <v>0.9991057729404441</v>
+        <v>1.030545933309158</v>
       </c>
       <c r="E15">
-        <v>0.9906357250053509</v>
+        <v>1.03509725261747</v>
       </c>
       <c r="F15">
-        <v>0.9898558095820584</v>
+        <v>1.042308406517207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037948726089871</v>
+        <v>1.03104761040615</v>
       </c>
       <c r="J15">
-        <v>1.004770499848569</v>
+        <v>1.032973799080085</v>
       </c>
       <c r="K15">
-        <v>1.013972551285857</v>
+        <v>1.0341175003243</v>
       </c>
       <c r="L15">
-        <v>1.005663501924788</v>
+        <v>1.038651911981281</v>
       </c>
       <c r="M15">
-        <v>1.004898592570713</v>
+        <v>1.045836611356729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9780532575906672</v>
+        <v>1.02703168355727</v>
       </c>
       <c r="D16">
-        <v>1.001805024331794</v>
+        <v>1.031040267827895</v>
       </c>
       <c r="E16">
-        <v>0.9937199959871135</v>
+        <v>1.035702462704827</v>
       </c>
       <c r="F16">
-        <v>0.9934212254505037</v>
+        <v>1.0430179588328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039045344421019</v>
+        <v>1.031179265631301</v>
       </c>
       <c r="J16">
-        <v>1.007085847361149</v>
+        <v>1.033410644521688</v>
       </c>
       <c r="K16">
-        <v>1.016105182642135</v>
+        <v>1.034495550559537</v>
       </c>
       <c r="L16">
-        <v>1.008166556992964</v>
+        <v>1.039141036029977</v>
       </c>
       <c r="M16">
-        <v>1.007873256012055</v>
+        <v>1.046430645132447</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9802778587414288</v>
+        <v>1.027444812725436</v>
       </c>
       <c r="D17">
-        <v>1.003473241742269</v>
+        <v>1.031350117049331</v>
       </c>
       <c r="E17">
-        <v>0.9956283787890394</v>
+        <v>1.036082190286906</v>
       </c>
       <c r="F17">
-        <v>0.9956273596370576</v>
+        <v>1.043463231577931</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039718034290466</v>
+        <v>1.031261167136932</v>
       </c>
       <c r="J17">
-        <v>1.008515610806309</v>
+        <v>1.033684428137308</v>
       </c>
       <c r="K17">
-        <v>1.017420645284151</v>
+        <v>1.034732242795875</v>
       </c>
       <c r="L17">
-        <v>1.009713495008209</v>
+        <v>1.039447744194719</v>
       </c>
       <c r="M17">
-        <v>1.009712493929848</v>
+        <v>1.04680326706612</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9815635818500617</v>
+        <v>1.02768576198494</v>
       </c>
       <c r="D18">
-        <v>1.004437539674375</v>
+        <v>1.031530762467252</v>
       </c>
       <c r="E18">
-        <v>0.9967323159843821</v>
+        <v>1.036303713288071</v>
       </c>
       <c r="F18">
-        <v>0.9969035636278074</v>
+        <v>1.043723019955628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040105045699124</v>
+        <v>1.031308692901478</v>
       </c>
       <c r="J18">
-        <v>1.009341655480986</v>
+        <v>1.033844035719236</v>
       </c>
       <c r="K18">
-        <v>1.018180112520404</v>
+        <v>1.034870139586725</v>
       </c>
       <c r="L18">
-        <v>1.010607693308789</v>
+        <v>1.039626603531484</v>
       </c>
       <c r="M18">
-        <v>1.010775960512458</v>
+        <v>1.047020611275255</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9820000053951522</v>
+        <v>1.027767915742266</v>
       </c>
       <c r="D19">
-        <v>1.004764879684502</v>
+        <v>1.031592343558395</v>
       </c>
       <c r="E19">
-        <v>0.9971071975647792</v>
+        <v>1.036379252728077</v>
       </c>
       <c r="F19">
-        <v>0.9973369502740017</v>
+        <v>1.043811612675361</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040236108625683</v>
+        <v>1.031324856224625</v>
       </c>
       <c r="J19">
-        <v>1.009621994393172</v>
+        <v>1.033898443231947</v>
       </c>
       <c r="K19">
-        <v>1.018437764050165</v>
+        <v>1.034917131378947</v>
       </c>
       <c r="L19">
-        <v>1.010911239409858</v>
+        <v>1.039687583439695</v>
       </c>
       <c r="M19">
-        <v>1.011137019101342</v>
+        <v>1.047094720062507</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9800404140976686</v>
+        <v>1.027400490154437</v>
       </c>
       <c r="D20">
-        <v>1.003295167776731</v>
+        <v>1.031316881885773</v>
       </c>
       <c r="E20">
-        <v>0.9954245842796456</v>
+        <v>1.03604144556005</v>
       </c>
       <c r="F20">
-        <v>0.9953917659353337</v>
+        <v>1.0434154509617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039646417725451</v>
+        <v>1.031252405323061</v>
       </c>
       <c r="J20">
-        <v>1.008363034163501</v>
+        <v>1.033655062617753</v>
       </c>
       <c r="K20">
-        <v>1.017280322046455</v>
+        <v>1.03470686469121</v>
       </c>
       <c r="L20">
-        <v>1.009548366819166</v>
+        <v>1.039414841277743</v>
       </c>
       <c r="M20">
-        <v>1.009516132476715</v>
+        <v>1.04676328824571</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9735276342108508</v>
+        <v>1.026205694257544</v>
       </c>
       <c r="D21">
-        <v>0.9984124690699516</v>
+        <v>1.030420338513968</v>
       </c>
       <c r="E21">
-        <v>0.989844206342274</v>
+        <v>1.034943605333275</v>
       </c>
       <c r="F21">
-        <v>0.98894081866838</v>
+        <v>1.042128293271012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037665487149266</v>
+        <v>1.031013969811108</v>
       </c>
       <c r="J21">
-        <v>1.004175419636887</v>
+        <v>1.032862800654307</v>
       </c>
       <c r="K21">
-        <v>1.013423980258561</v>
+        <v>1.034021366444235</v>
       </c>
       <c r="L21">
-        <v>1.005020572048989</v>
+        <v>1.038527679380795</v>
       </c>
       <c r="M21">
-        <v>1.004134784029048</v>
+        <v>1.04568577263398</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9693176031420516</v>
+        <v>1.025454276586431</v>
       </c>
       <c r="D22">
-        <v>0.995258291790345</v>
+        <v>1.029855888940357</v>
       </c>
       <c r="E22">
-        <v>0.9862464688759749</v>
+        <v>1.034253659098087</v>
       </c>
       <c r="F22">
-        <v>0.9847818132230941</v>
+        <v>1.04131961969919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036369155120323</v>
+        <v>1.030861841721372</v>
       </c>
       <c r="J22">
-        <v>1.001466148380914</v>
+        <v>1.032363901432299</v>
       </c>
       <c r="K22">
-        <v>1.010924271742496</v>
+        <v>1.033588910762011</v>
       </c>
       <c r="L22">
-        <v>1.002095399877123</v>
+        <v>1.03796953981927</v>
       </c>
       <c r="M22">
-        <v>1.000660896109249</v>
+        <v>1.045008295911444</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9715607693251878</v>
+        <v>1.025852636656291</v>
       </c>
       <c r="D23">
-        <v>0.9969386422412053</v>
+        <v>1.030155185962224</v>
       </c>
       <c r="E23">
-        <v>0.988162469092513</v>
+        <v>1.034619383305418</v>
       </c>
       <c r="F23">
-        <v>0.9869967334652507</v>
+        <v>1.04174825479679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037061315940469</v>
+        <v>1.030942697488677</v>
       </c>
       <c r="J23">
-        <v>1.002909880035124</v>
+        <v>1.032628450591578</v>
       </c>
       <c r="K23">
-        <v>1.012256766183647</v>
+        <v>1.03381830160247</v>
       </c>
       <c r="L23">
-        <v>1.003653790177305</v>
+        <v>1.038265452937314</v>
       </c>
       <c r="M23">
-        <v>1.002511365139481</v>
+        <v>1.045367439186827</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9801477416398983</v>
+        <v>1.027420517684113</v>
       </c>
       <c r="D24">
-        <v>1.003375658704373</v>
+        <v>1.031331899686263</v>
       </c>
       <c r="E24">
-        <v>0.9955166985802074</v>
+        <v>1.036059856242069</v>
       </c>
       <c r="F24">
-        <v>0.99549825325576</v>
+        <v>1.04343704075417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039678794696629</v>
+        <v>1.031256365169647</v>
       </c>
       <c r="J24">
-        <v>1.008432001378389</v>
+        <v>1.033668331896887</v>
       </c>
       <c r="K24">
-        <v>1.017343752194515</v>
+        <v>1.034718332464108</v>
       </c>
       <c r="L24">
-        <v>1.009623006128913</v>
+        <v>1.039429708807974</v>
       </c>
       <c r="M24">
-        <v>1.00960488853</v>
+        <v>1.046781352953167</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896510954417413</v>
+        <v>1.029239095401842</v>
       </c>
       <c r="D25">
-        <v>1.010504666676107</v>
+        <v>1.032694098159833</v>
       </c>
       <c r="E25">
-        <v>1.003692984825908</v>
+        <v>1.037732791200228</v>
       </c>
       <c r="F25">
-        <v>1.004951234772113</v>
+        <v>1.045399463707819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042507145162412</v>
+        <v>1.03161070788088</v>
       </c>
       <c r="J25">
-        <v>1.014531832371785</v>
+        <v>1.034871691558839</v>
       </c>
       <c r="K25">
-        <v>1.02294207084322</v>
+        <v>1.035756420508819</v>
       </c>
       <c r="L25">
-        <v>1.016234241195433</v>
+        <v>1.04077925863368</v>
       </c>
       <c r="M25">
-        <v>1.017473172372863</v>
+        <v>1.048422127087495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030688913991657</v>
+        <v>0.9968982722317656</v>
       </c>
       <c r="D2">
-        <v>1.033777895261852</v>
+        <v>1.015941455180603</v>
       </c>
       <c r="E2">
-        <v>1.03906820358443</v>
+        <v>1.009955452491989</v>
       </c>
       <c r="F2">
-        <v>1.046966858797792</v>
+        <v>1.012193651005185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031885535942883</v>
+        <v>1.044606471014204</v>
       </c>
       <c r="J2">
-        <v>1.035828773694291</v>
+        <v>1.019172152889072</v>
       </c>
       <c r="K2">
-        <v>1.036579266983557</v>
+        <v>1.027183079320118</v>
       </c>
       <c r="L2">
-        <v>1.041854443255225</v>
+        <v>1.021277812741673</v>
       </c>
       <c r="M2">
-        <v>1.049730814449257</v>
+        <v>1.023485683030342</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031741231226777</v>
+        <v>1.001984788635084</v>
       </c>
       <c r="D3">
-        <v>1.034563260479992</v>
+        <v>1.019755775547704</v>
       </c>
       <c r="E3">
-        <v>1.040038460422521</v>
+        <v>1.014365545917321</v>
       </c>
       <c r="F3">
-        <v>1.048106192718484</v>
+        <v>1.017295568761853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032080558505502</v>
+        <v>1.046045285736281</v>
       </c>
       <c r="J3">
-        <v>1.0365221261378</v>
+        <v>1.022421492161354</v>
       </c>
       <c r="K3">
-        <v>1.037173746211646</v>
+        <v>1.030141966859067</v>
       </c>
       <c r="L3">
-        <v>1.042634420362074</v>
+        <v>1.024817858178943</v>
       </c>
       <c r="M3">
-        <v>1.050681047445338</v>
+        <v>1.027711830869712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032421978830613</v>
+        <v>1.005200052344646</v>
       </c>
       <c r="D4">
-        <v>1.035070716045394</v>
+        <v>1.022165620098975</v>
       </c>
       <c r="E4">
-        <v>1.040666572577727</v>
+        <v>1.017159716363014</v>
       </c>
       <c r="F4">
-        <v>1.04884400588789</v>
+        <v>1.020529033826447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032204654150423</v>
+        <v>1.046938328001309</v>
       </c>
       <c r="J4">
-        <v>1.036970043100419</v>
+        <v>1.0244716691619</v>
       </c>
       <c r="K4">
-        <v>1.03755703308098</v>
+        <v>1.03200368818896</v>
       </c>
       <c r="L4">
-        <v>1.043138792993387</v>
+        <v>1.027055357815374</v>
       </c>
       <c r="M4">
-        <v>1.051295917536339</v>
+        <v>1.030385847730063</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032708124154603</v>
+        <v>1.006534260578422</v>
       </c>
       <c r="D5">
-        <v>1.035283875325801</v>
+        <v>1.023165237383784</v>
       </c>
       <c r="E5">
-        <v>1.04093070032573</v>
+        <v>1.01832069899466</v>
       </c>
       <c r="F5">
-        <v>1.049154323265423</v>
+        <v>1.021872798742894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032256321492679</v>
+        <v>1.047304892690108</v>
       </c>
       <c r="J5">
-        <v>1.037158172758816</v>
+        <v>1.025321462408044</v>
       </c>
       <c r="K5">
-        <v>1.037717835779567</v>
+        <v>1.03277409328222</v>
       </c>
       <c r="L5">
-        <v>1.043350753296416</v>
+        <v>1.027983739566825</v>
       </c>
       <c r="M5">
-        <v>1.051554410195556</v>
+        <v>1.031496048335864</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032756166817261</v>
+        <v>1.006757274586779</v>
       </c>
       <c r="D6">
-        <v>1.035319655422098</v>
+        <v>1.023332300141481</v>
       </c>
       <c r="E6">
-        <v>1.040975052597772</v>
+        <v>1.018514845831765</v>
       </c>
       <c r="F6">
-        <v>1.049206435169524</v>
+        <v>1.022097527210509</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032264967188873</v>
+        <v>1.047365926482922</v>
       </c>
       <c r="J6">
-        <v>1.037189750308487</v>
+        <v>1.025463448987447</v>
       </c>
       <c r="K6">
-        <v>1.037744815829531</v>
+        <v>1.032902739700511</v>
       </c>
       <c r="L6">
-        <v>1.04338633778654</v>
+        <v>1.028138912731055</v>
       </c>
       <c r="M6">
-        <v>1.05159781232165</v>
+        <v>1.031681652860004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032425802479163</v>
+        <v>1.005217947898092</v>
       </c>
       <c r="D7">
-        <v>1.035073564978819</v>
+        <v>1.02217902940333</v>
       </c>
       <c r="E7">
-        <v>1.040670101593319</v>
+        <v>1.017175282546891</v>
       </c>
       <c r="F7">
-        <v>1.048848151810992</v>
+        <v>1.020547049676734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032205346506906</v>
+        <v>1.046943260629671</v>
       </c>
       <c r="J7">
-        <v>1.036972557584637</v>
+        <v>1.02448307113275</v>
       </c>
       <c r="K7">
-        <v>1.037559183036168</v>
+        <v>1.032014030054624</v>
       </c>
       <c r="L7">
-        <v>1.04314162552391</v>
+        <v>1.02706781049288</v>
       </c>
       <c r="M7">
-        <v>1.051299371523062</v>
+        <v>1.030400736420165</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031044585274103</v>
+        <v>0.9986334775627301</v>
       </c>
       <c r="D8">
-        <v>1.034043463488221</v>
+        <v>1.017242880579955</v>
       </c>
       <c r="E8">
-        <v>1.039396045977316</v>
+        <v>1.011458514028146</v>
       </c>
       <c r="F8">
-        <v>1.047351780276541</v>
+        <v>1.013932314226371</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031951878664176</v>
+        <v>1.045100722707336</v>
       </c>
       <c r="J8">
-        <v>1.036063246080658</v>
+        <v>1.020281394126962</v>
       </c>
       <c r="K8">
-        <v>1.036780459657748</v>
+        <v>1.028194243706448</v>
       </c>
       <c r="L8">
-        <v>1.042118107277319</v>
+        <v>1.022485477613006</v>
       </c>
       <c r="M8">
-        <v>1.050051948869959</v>
+        <v>1.024926813495429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028609376345163</v>
+        <v>0.9864137555609628</v>
       </c>
       <c r="D9">
-        <v>1.032222745322431</v>
+        <v>1.008075865534444</v>
       </c>
       <c r="E9">
-        <v>1.037153238831544</v>
+        <v>1.000903231564959</v>
       </c>
       <c r="F9">
-        <v>1.044719485927107</v>
+        <v>1.001725617699468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031489194396967</v>
+        <v>1.041552588017592</v>
       </c>
       <c r="J9">
-        <v>1.03445535414898</v>
+        <v>1.012455573069904</v>
       </c>
       <c r="K9">
-        <v>1.035397694426084</v>
+        <v>1.021039262338979</v>
       </c>
       <c r="L9">
-        <v>1.040312059179624</v>
+        <v>1.013981671445362</v>
       </c>
       <c r="M9">
-        <v>1.047853879540023</v>
+        <v>1.014790759865299</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026984992996846</v>
+        <v>0.9778002257605397</v>
       </c>
       <c r="D10">
-        <v>1.031005240476399</v>
+        <v>1.001615298840159</v>
       </c>
       <c r="E10">
-        <v>1.035659554479717</v>
+        <v>0.9935030663896004</v>
       </c>
       <c r="F10">
-        <v>1.042967647965572</v>
+        <v>0.9931704527850561</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031169976694749</v>
+        <v>1.038968590795196</v>
       </c>
       <c r="J10">
-        <v>1.033379692733725</v>
+        <v>1.006923183387207</v>
       </c>
       <c r="K10">
-        <v>1.034468780174822</v>
+        <v>1.015955449685545</v>
       </c>
       <c r="L10">
-        <v>1.039106369866966</v>
+        <v>1.007990624223699</v>
       </c>
       <c r="M10">
-        <v>1.046388535283523</v>
+        <v>1.007664121474473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026281395930686</v>
+        <v>0.9739468042763677</v>
       </c>
       <c r="D11">
-        <v>1.030477178504828</v>
+        <v>0.9987266155749143</v>
       </c>
       <c r="E11">
-        <v>1.03501313509336</v>
+        <v>0.9902028222277495</v>
       </c>
       <c r="F11">
-        <v>1.042209798444811</v>
+        <v>0.989355376604328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031029203932895</v>
+        <v>1.037793904865176</v>
       </c>
       <c r="J11">
-        <v>1.032913035308695</v>
+        <v>1.004445078813235</v>
       </c>
       <c r="K11">
-        <v>1.034064877559209</v>
+        <v>1.013672586081271</v>
       </c>
       <c r="L11">
-        <v>1.038583900980823</v>
+        <v>1.005311894639236</v>
       </c>
       <c r="M11">
-        <v>1.045754032877813</v>
+        <v>1.004480866137006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026020013776208</v>
+        <v>0.9724956795452782</v>
       </c>
       <c r="D12">
-        <v>1.030280901869584</v>
+        <v>0.9976391464889458</v>
       </c>
       <c r="E12">
-        <v>1.034773079641205</v>
+        <v>0.988961646254457</v>
       </c>
       <c r="F12">
-        <v>1.041928405461056</v>
+        <v>0.9879205826082147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030976531931428</v>
+        <v>1.037348822163986</v>
       </c>
       <c r="J12">
-        <v>1.032739564413446</v>
+        <v>1.003511473718124</v>
       </c>
       <c r="K12">
-        <v>1.033914598514627</v>
+        <v>1.012811716928042</v>
       </c>
       <c r="L12">
-        <v>1.038389773031814</v>
+        <v>1.004303423894752</v>
       </c>
       <c r="M12">
-        <v>1.045518350466792</v>
+        <v>1.003282922865038</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026076082723042</v>
+        <v>0.9728078668855652</v>
       </c>
       <c r="D13">
-        <v>1.030323009790796</v>
+        <v>0.9978730809237411</v>
       </c>
       <c r="E13">
-        <v>1.034824569929548</v>
+        <v>0.9892285912840086</v>
       </c>
       <c r="F13">
-        <v>1.041988760415856</v>
+        <v>0.9882291703583683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030987847569339</v>
+        <v>1.037444696225106</v>
       </c>
       <c r="J13">
-        <v>1.032776780552771</v>
+        <v>1.003712341505856</v>
       </c>
       <c r="K13">
-        <v>1.033946845262465</v>
+        <v>1.012996971803076</v>
       </c>
       <c r="L13">
-        <v>1.038431416839815</v>
+        <v>1.004520366897652</v>
       </c>
       <c r="M13">
-        <v>1.045568905145192</v>
+        <v>1.003540604465983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026259790715032</v>
+        <v>0.9738272649568226</v>
       </c>
       <c r="D14">
-        <v>1.030460956884818</v>
+        <v>0.9986370252326972</v>
       </c>
       <c r="E14">
-        <v>1.034993290943439</v>
+        <v>0.9901005442328202</v>
       </c>
       <c r="F14">
-        <v>1.042186536250796</v>
+        <v>0.9892371438423347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031024857854761</v>
+        <v>1.037757294971767</v>
       </c>
       <c r="J14">
-        <v>1.03289869887476</v>
+        <v>1.004368178915395</v>
       </c>
       <c r="K14">
-        <v>1.034052460578181</v>
+        <v>1.013601693788581</v>
       </c>
       <c r="L14">
-        <v>1.038567855522897</v>
+        <v>1.005228813598663</v>
       </c>
       <c r="M14">
-        <v>1.045734551296486</v>
+        <v>1.004382166330893</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026372974633472</v>
+        <v>0.9744526892241935</v>
       </c>
       <c r="D15">
-        <v>1.030545933309158</v>
+        <v>0.9991057729404447</v>
       </c>
       <c r="E15">
-        <v>1.03509725261747</v>
+        <v>0.9906357250053516</v>
       </c>
       <c r="F15">
-        <v>1.042308406517207</v>
+        <v>0.9898558095820591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03104761040615</v>
+        <v>1.037948726089871</v>
       </c>
       <c r="J15">
-        <v>1.032973799080085</v>
+        <v>1.00477049984857</v>
       </c>
       <c r="K15">
-        <v>1.0341175003243</v>
+        <v>1.013972551285858</v>
       </c>
       <c r="L15">
-        <v>1.038651911981281</v>
+        <v>1.005663501924789</v>
       </c>
       <c r="M15">
-        <v>1.045836611356729</v>
+        <v>1.004898592570713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02703168355727</v>
+        <v>0.9780532575906672</v>
       </c>
       <c r="D16">
-        <v>1.031040267827895</v>
+        <v>1.001805024331794</v>
       </c>
       <c r="E16">
-        <v>1.035702462704827</v>
+        <v>0.9937199959871131</v>
       </c>
       <c r="F16">
-        <v>1.0430179588328</v>
+        <v>0.9934212254505028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031179265631301</v>
+        <v>1.039045344421019</v>
       </c>
       <c r="J16">
-        <v>1.033410644521688</v>
+        <v>1.007085847361149</v>
       </c>
       <c r="K16">
-        <v>1.034495550559537</v>
+        <v>1.016105182642135</v>
       </c>
       <c r="L16">
-        <v>1.039141036029977</v>
+        <v>1.008166556992964</v>
       </c>
       <c r="M16">
-        <v>1.046430645132447</v>
+        <v>1.007873256012054</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027444812725436</v>
+        <v>0.9802778587414281</v>
       </c>
       <c r="D17">
-        <v>1.031350117049331</v>
+        <v>1.003473241742268</v>
       </c>
       <c r="E17">
-        <v>1.036082190286906</v>
+        <v>0.9956283787890388</v>
       </c>
       <c r="F17">
-        <v>1.043463231577931</v>
+        <v>0.9956273596370572</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031261167136932</v>
+        <v>1.039718034290466</v>
       </c>
       <c r="J17">
-        <v>1.033684428137308</v>
+        <v>1.008515610806309</v>
       </c>
       <c r="K17">
-        <v>1.034732242795875</v>
+        <v>1.017420645284151</v>
       </c>
       <c r="L17">
-        <v>1.039447744194719</v>
+        <v>1.009713495008209</v>
       </c>
       <c r="M17">
-        <v>1.04680326706612</v>
+        <v>1.009712493929847</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02768576198494</v>
+        <v>0.9815635818500611</v>
       </c>
       <c r="D18">
-        <v>1.031530762467252</v>
+        <v>1.004437539674375</v>
       </c>
       <c r="E18">
-        <v>1.036303713288071</v>
+        <v>0.9967323159843814</v>
       </c>
       <c r="F18">
-        <v>1.043723019955628</v>
+        <v>0.9969035636278066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031308692901478</v>
+        <v>1.040105045699124</v>
       </c>
       <c r="J18">
-        <v>1.033844035719236</v>
+        <v>1.009341655480985</v>
       </c>
       <c r="K18">
-        <v>1.034870139586725</v>
+        <v>1.018180112520404</v>
       </c>
       <c r="L18">
-        <v>1.039626603531484</v>
+        <v>1.010607693308788</v>
       </c>
       <c r="M18">
-        <v>1.047020611275255</v>
+        <v>1.010775960512457</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027767915742266</v>
+        <v>0.9820000053951529</v>
       </c>
       <c r="D19">
-        <v>1.031592343558395</v>
+        <v>1.004764879684503</v>
       </c>
       <c r="E19">
-        <v>1.036379252728077</v>
+        <v>0.9971071975647794</v>
       </c>
       <c r="F19">
-        <v>1.043811612675361</v>
+        <v>0.9973369502740024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031324856224625</v>
+        <v>1.040236108625683</v>
       </c>
       <c r="J19">
-        <v>1.033898443231947</v>
+        <v>1.009621994393173</v>
       </c>
       <c r="K19">
-        <v>1.034917131378947</v>
+        <v>1.018437764050165</v>
       </c>
       <c r="L19">
-        <v>1.039687583439695</v>
+        <v>1.010911239409858</v>
       </c>
       <c r="M19">
-        <v>1.047094720062507</v>
+        <v>1.011137019101343</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027400490154437</v>
+        <v>0.9800404140976678</v>
       </c>
       <c r="D20">
-        <v>1.031316881885773</v>
+        <v>1.00329516777673</v>
       </c>
       <c r="E20">
-        <v>1.03604144556005</v>
+        <v>0.9954245842796444</v>
       </c>
       <c r="F20">
-        <v>1.0434154509617</v>
+        <v>0.9953917659353327</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031252405323061</v>
+        <v>1.039646417725451</v>
       </c>
       <c r="J20">
-        <v>1.033655062617753</v>
+        <v>1.008363034163501</v>
       </c>
       <c r="K20">
-        <v>1.03470686469121</v>
+        <v>1.017280322046455</v>
       </c>
       <c r="L20">
-        <v>1.039414841277743</v>
+        <v>1.009548366819165</v>
       </c>
       <c r="M20">
-        <v>1.04676328824571</v>
+        <v>1.009516132476714</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026205694257544</v>
+        <v>0.9735276342108508</v>
       </c>
       <c r="D21">
-        <v>1.030420338513968</v>
+        <v>0.9984124690699518</v>
       </c>
       <c r="E21">
-        <v>1.034943605333275</v>
+        <v>0.9898442063422742</v>
       </c>
       <c r="F21">
-        <v>1.042128293271012</v>
+        <v>0.9889408186683805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031013969811108</v>
+        <v>1.037665487149266</v>
       </c>
       <c r="J21">
-        <v>1.032862800654307</v>
+        <v>1.004175419636887</v>
       </c>
       <c r="K21">
-        <v>1.034021366444235</v>
+        <v>1.013423980258561</v>
       </c>
       <c r="L21">
-        <v>1.038527679380795</v>
+        <v>1.00502057204899</v>
       </c>
       <c r="M21">
-        <v>1.04568577263398</v>
+        <v>1.004134784029048</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025454276586431</v>
+        <v>0.969317603142052</v>
       </c>
       <c r="D22">
-        <v>1.029855888940357</v>
+        <v>0.9952582917903459</v>
       </c>
       <c r="E22">
-        <v>1.034253659098087</v>
+        <v>0.9862464688759753</v>
       </c>
       <c r="F22">
-        <v>1.04131961969919</v>
+        <v>0.9847818132230947</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030861841721372</v>
+        <v>1.036369155120323</v>
       </c>
       <c r="J22">
-        <v>1.032363901432299</v>
+        <v>1.001466148380915</v>
       </c>
       <c r="K22">
-        <v>1.033588910762011</v>
+        <v>1.010924271742497</v>
       </c>
       <c r="L22">
-        <v>1.03796953981927</v>
+        <v>1.002095399877124</v>
       </c>
       <c r="M22">
-        <v>1.045008295911444</v>
+        <v>1.000660896109249</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025852636656291</v>
+        <v>0.9715607693251873</v>
       </c>
       <c r="D23">
-        <v>1.030155185962224</v>
+        <v>0.9969386422412052</v>
       </c>
       <c r="E23">
-        <v>1.034619383305418</v>
+        <v>0.9881624690925126</v>
       </c>
       <c r="F23">
-        <v>1.04174825479679</v>
+        <v>0.9869967334652504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030942697488677</v>
+        <v>1.037061315940469</v>
       </c>
       <c r="J23">
-        <v>1.032628450591578</v>
+        <v>1.002909880035123</v>
       </c>
       <c r="K23">
-        <v>1.03381830160247</v>
+        <v>1.012256766183647</v>
       </c>
       <c r="L23">
-        <v>1.038265452937314</v>
+        <v>1.003653790177304</v>
       </c>
       <c r="M23">
-        <v>1.045367439186827</v>
+        <v>1.002511365139481</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027420517684113</v>
+        <v>0.9801477416398988</v>
       </c>
       <c r="D24">
-        <v>1.031331899686263</v>
+        <v>1.003375658704373</v>
       </c>
       <c r="E24">
-        <v>1.036059856242069</v>
+        <v>0.9955166985802083</v>
       </c>
       <c r="F24">
-        <v>1.04343704075417</v>
+        <v>0.9954982532557614</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031256365169647</v>
+        <v>1.039678794696629</v>
       </c>
       <c r="J24">
-        <v>1.033668331896887</v>
+        <v>1.008432001378389</v>
       </c>
       <c r="K24">
-        <v>1.034718332464108</v>
+        <v>1.017343752194516</v>
       </c>
       <c r="L24">
-        <v>1.039429708807974</v>
+        <v>1.009623006128914</v>
       </c>
       <c r="M24">
-        <v>1.046781352953167</v>
+        <v>1.009604888530002</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029239095401842</v>
+        <v>0.9896510954417413</v>
       </c>
       <c r="D25">
-        <v>1.032694098159833</v>
+        <v>1.010504666676107</v>
       </c>
       <c r="E25">
-        <v>1.037732791200228</v>
+        <v>1.003692984825908</v>
       </c>
       <c r="F25">
-        <v>1.045399463707819</v>
+        <v>1.004951234772113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03161070788088</v>
+        <v>1.042507145162412</v>
       </c>
       <c r="J25">
-        <v>1.034871691558839</v>
+        <v>1.014531832371785</v>
       </c>
       <c r="K25">
-        <v>1.035756420508819</v>
+        <v>1.02294207084322</v>
       </c>
       <c r="L25">
-        <v>1.04077925863368</v>
+        <v>1.016234241195433</v>
       </c>
       <c r="M25">
-        <v>1.048422127087495</v>
+        <v>1.017473172372863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968982722317656</v>
+        <v>1.009435168207706</v>
       </c>
       <c r="D2">
-        <v>1.015941455180603</v>
+        <v>1.025089581898659</v>
       </c>
       <c r="E2">
-        <v>1.009955452491989</v>
+        <v>1.02237514629768</v>
       </c>
       <c r="F2">
-        <v>1.012193651005185</v>
+        <v>1.029845664825059</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044606471014204</v>
+        <v>1.044683534207173</v>
       </c>
       <c r="J2">
-        <v>1.019172152889072</v>
+        <v>1.03133729127675</v>
       </c>
       <c r="K2">
-        <v>1.027183079320118</v>
+        <v>1.03621010389396</v>
       </c>
       <c r="L2">
-        <v>1.021277812741673</v>
+        <v>1.033531318206697</v>
       </c>
       <c r="M2">
-        <v>1.023485683030342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.040904290101636</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040945392246977</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036673935897476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001984788635084</v>
+        <v>1.014964987220266</v>
       </c>
       <c r="D3">
-        <v>1.019755775547704</v>
+        <v>1.028762530489122</v>
       </c>
       <c r="E3">
-        <v>1.014365545917321</v>
+        <v>1.026834463408931</v>
       </c>
       <c r="F3">
-        <v>1.017295568761853</v>
+        <v>1.033961840306149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046045285736281</v>
+        <v>1.045811058639118</v>
       </c>
       <c r="J3">
-        <v>1.022421492161354</v>
+        <v>1.035055841591702</v>
       </c>
       <c r="K3">
-        <v>1.030141966859067</v>
+        <v>1.039040155107565</v>
       </c>
       <c r="L3">
-        <v>1.024817858178943</v>
+        <v>1.037135130040246</v>
       </c>
       <c r="M3">
-        <v>1.027711830869712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.044177859195446</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043536196464673</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038672371791589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005200052344646</v>
+        <v>1.018459296054377</v>
       </c>
       <c r="D4">
-        <v>1.022165620098975</v>
+        <v>1.031085551625268</v>
       </c>
       <c r="E4">
-        <v>1.017159716363014</v>
+        <v>1.029658342032913</v>
       </c>
       <c r="F4">
-        <v>1.020529033826447</v>
+        <v>1.036572717839321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046938328001309</v>
+        <v>1.04651154433755</v>
       </c>
       <c r="J4">
-        <v>1.0244716691619</v>
+        <v>1.037402314318424</v>
       </c>
       <c r="K4">
-        <v>1.03200368818896</v>
+        <v>1.040822736906026</v>
       </c>
       <c r="L4">
-        <v>1.027055357815374</v>
+        <v>1.039411524137696</v>
       </c>
       <c r="M4">
-        <v>1.030385847730063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.046248904786711</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045175281484822</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039933712178055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006534260578422</v>
+        <v>1.01991555525565</v>
       </c>
       <c r="D5">
-        <v>1.023165237383784</v>
+        <v>1.032056840191871</v>
       </c>
       <c r="E5">
-        <v>1.01832069899466</v>
+        <v>1.030837242718914</v>
       </c>
       <c r="F5">
-        <v>1.021872798742894</v>
+        <v>1.0376628588755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047304892690108</v>
+        <v>1.046802899822973</v>
       </c>
       <c r="J5">
-        <v>1.025321462408044</v>
+        <v>1.038381351092565</v>
       </c>
       <c r="K5">
-        <v>1.03277409328222</v>
+        <v>1.04156787113361</v>
       </c>
       <c r="L5">
-        <v>1.027983739566825</v>
+        <v>1.040361569006599</v>
       </c>
       <c r="M5">
-        <v>1.031496048335864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.047113268936419</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045859363036887</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040467752574823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006757274586779</v>
+        <v>1.020166872595515</v>
       </c>
       <c r="D6">
-        <v>1.023332300141481</v>
+        <v>1.032227821152561</v>
       </c>
       <c r="E6">
-        <v>1.018514845831765</v>
+        <v>1.031041573862223</v>
       </c>
       <c r="F6">
-        <v>1.022097527210509</v>
+        <v>1.037850821217629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047365926482922</v>
+        <v>1.046855892602383</v>
       </c>
       <c r="J6">
-        <v>1.025463448987447</v>
+        <v>1.03855266882601</v>
       </c>
       <c r="K6">
-        <v>1.032902739700511</v>
+        <v>1.041700850900414</v>
       </c>
       <c r="L6">
-        <v>1.028138912731055</v>
+        <v>1.040527474350704</v>
       </c>
       <c r="M6">
-        <v>1.031681652860004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.047263331941423</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045978126959823</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040570518467645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005217947898092</v>
+        <v>1.018500254592293</v>
       </c>
       <c r="D7">
-        <v>1.02217902940333</v>
+        <v>1.031121852937245</v>
       </c>
       <c r="E7">
-        <v>1.017175282546891</v>
+        <v>1.029693687241436</v>
       </c>
       <c r="F7">
-        <v>1.020547049676734</v>
+        <v>1.036602563198951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046943260629671</v>
+        <v>1.046527565632974</v>
       </c>
       <c r="J7">
-        <v>1.02448307113275</v>
+        <v>1.037436353526774</v>
       </c>
       <c r="K7">
-        <v>1.032014030054624</v>
+        <v>1.040855751648029</v>
       </c>
       <c r="L7">
-        <v>1.02706781049288</v>
+        <v>1.03944358678596</v>
       </c>
       <c r="M7">
-        <v>1.030400736420165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.046275560433102</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045196377505751</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039977162714126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9986334775627301</v>
+        <v>1.011349343515455</v>
       </c>
       <c r="D8">
-        <v>1.017242880579955</v>
+        <v>1.026371881115658</v>
       </c>
       <c r="E8">
-        <v>1.011458514028146</v>
+        <v>1.023920462566905</v>
       </c>
       <c r="F8">
-        <v>1.013932314226371</v>
+        <v>1.031267536974237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045100722707336</v>
+        <v>1.045086236283427</v>
       </c>
       <c r="J8">
-        <v>1.020281394126962</v>
+        <v>1.032633370739384</v>
       </c>
       <c r="K8">
-        <v>1.028194243706448</v>
+        <v>1.037206095311386</v>
       </c>
       <c r="L8">
-        <v>1.022485477613006</v>
+        <v>1.034785878526943</v>
       </c>
       <c r="M8">
-        <v>1.024926813495429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.042039992660484</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041844223561792</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03740114041149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9864137555609628</v>
+        <v>0.9980304991365821</v>
       </c>
       <c r="D9">
-        <v>1.008075865534444</v>
+        <v>1.017530749688574</v>
       </c>
       <c r="E9">
-        <v>1.000903231564959</v>
+        <v>1.013215143012659</v>
       </c>
       <c r="F9">
-        <v>1.001725617699468</v>
+        <v>1.021414458216154</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041552588017592</v>
+        <v>1.042295163758272</v>
       </c>
       <c r="J9">
-        <v>1.012455573069904</v>
+        <v>1.023652997765854</v>
       </c>
       <c r="K9">
-        <v>1.021039262338979</v>
+        <v>1.030345664565723</v>
       </c>
       <c r="L9">
-        <v>1.013981671445362</v>
+        <v>1.026097391523821</v>
       </c>
       <c r="M9">
-        <v>1.014790759865299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.034169398911491</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035615160917874</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032547118037292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9778002257605397</v>
+        <v>0.988813945061088</v>
       </c>
       <c r="D10">
-        <v>1.001615298840159</v>
+        <v>1.011454973240707</v>
       </c>
       <c r="E10">
-        <v>0.9935030663896004</v>
+        <v>1.005899314168547</v>
       </c>
       <c r="F10">
-        <v>0.9931704527850561</v>
+        <v>1.014749453524992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038968590795196</v>
+        <v>1.04033631772832</v>
       </c>
       <c r="J10">
-        <v>1.006923183387207</v>
+        <v>1.017478514030285</v>
       </c>
       <c r="K10">
-        <v>1.015955449685545</v>
+        <v>1.02562043950004</v>
       </c>
       <c r="L10">
-        <v>1.007990624223699</v>
+        <v>1.020162865375182</v>
       </c>
       <c r="M10">
-        <v>1.007664121474473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.028857412496332</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031462918553271</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029222957405291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9739468042763677</v>
+        <v>0.9861739321404301</v>
       </c>
       <c r="D11">
-        <v>0.9987266155749143</v>
+        <v>1.009898560530757</v>
       </c>
       <c r="E11">
-        <v>0.9902028222277495</v>
+        <v>1.004246776238084</v>
       </c>
       <c r="F11">
-        <v>0.989355376604328</v>
+        <v>1.013605208255461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037793904865176</v>
+        <v>1.040012385961713</v>
       </c>
       <c r="J11">
-        <v>1.004445078813235</v>
+        <v>1.016133421917339</v>
       </c>
       <c r="K11">
-        <v>1.013672586081271</v>
+        <v>1.024636187998241</v>
       </c>
       <c r="L11">
-        <v>1.005311894639236</v>
+        <v>1.019089046519086</v>
       </c>
       <c r="M11">
-        <v>1.004480866137006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.028275031665338</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03144180635231</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028560161177012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9724956795452782</v>
+        <v>0.9857598734331564</v>
       </c>
       <c r="D12">
-        <v>0.9976391464889458</v>
+        <v>1.009765262821594</v>
       </c>
       <c r="E12">
-        <v>0.988961646254457</v>
+        <v>1.004247773985364</v>
       </c>
       <c r="F12">
-        <v>0.9879205826082147</v>
+        <v>1.013862557939674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037348822163986</v>
+        <v>1.040110162389126</v>
       </c>
       <c r="J12">
-        <v>1.003511473718124</v>
+        <v>1.016179371894323</v>
       </c>
       <c r="K12">
-        <v>1.012811716928042</v>
+        <v>1.024707737057821</v>
       </c>
       <c r="L12">
-        <v>1.004303423894752</v>
+        <v>1.019294043335624</v>
       </c>
       <c r="M12">
-        <v>1.003282922865038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.028728906597543</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032129472812738</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028610749492577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9728078668855652</v>
+        <v>0.9870574208532531</v>
       </c>
       <c r="D13">
-        <v>0.9978730809237411</v>
+        <v>1.01074376834847</v>
       </c>
       <c r="E13">
-        <v>0.9892285912840086</v>
+        <v>1.005544690247163</v>
       </c>
       <c r="F13">
-        <v>0.9882291703583683</v>
+        <v>1.015244974734653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037444696225106</v>
+        <v>1.040556930455612</v>
       </c>
       <c r="J13">
-        <v>1.003712341505856</v>
+        <v>1.017325150977308</v>
       </c>
       <c r="K13">
-        <v>1.012996971803076</v>
+        <v>1.025624636535523</v>
       </c>
       <c r="L13">
-        <v>1.004520366897652</v>
+        <v>1.020522748439084</v>
       </c>
       <c r="M13">
-        <v>1.003540604465983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.03004274588437</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033446494106153</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029256524859107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9738272649568226</v>
+        <v>0.98873279355871</v>
       </c>
       <c r="D14">
-        <v>0.9986370252326972</v>
+        <v>1.011928222765868</v>
       </c>
       <c r="E14">
-        <v>0.9901005442328202</v>
+        <v>1.00703055965467</v>
       </c>
       <c r="F14">
-        <v>0.9892371438423347</v>
+        <v>1.016713804803215</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037757294971767</v>
+        <v>1.04102579857273</v>
       </c>
       <c r="J14">
-        <v>1.004368178915395</v>
+        <v>1.01861826741326</v>
       </c>
       <c r="K14">
-        <v>1.013601693788581</v>
+        <v>1.02664532100969</v>
       </c>
       <c r="L14">
-        <v>1.005228813598663</v>
+        <v>1.021837893347445</v>
       </c>
       <c r="M14">
-        <v>1.004382166330893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.031343824514307</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034649021305045</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029979628209662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9744526892241935</v>
+        <v>0.9895241210522943</v>
       </c>
       <c r="D15">
-        <v>0.9991057729404447</v>
+        <v>1.01246888466566</v>
       </c>
       <c r="E15">
-        <v>0.9906357250053516</v>
+        <v>1.007689682168302</v>
       </c>
       <c r="F15">
-        <v>0.9898558095820591</v>
+        <v>1.017338373948495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037948726089871</v>
+        <v>1.041221216500053</v>
       </c>
       <c r="J15">
-        <v>1.00477049984857</v>
+        <v>1.019185526842748</v>
       </c>
       <c r="K15">
-        <v>1.013972551285858</v>
+        <v>1.027088782446413</v>
       </c>
       <c r="L15">
-        <v>1.005663501924789</v>
+        <v>1.022396894834244</v>
       </c>
       <c r="M15">
-        <v>1.004898592570713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.031870403409787</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035102896283922</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030299085330385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9780532575906672</v>
+        <v>0.9931723373507718</v>
       </c>
       <c r="D16">
-        <v>1.001805024331794</v>
+        <v>1.014845965799748</v>
       </c>
       <c r="E16">
-        <v>0.9937199959871131</v>
+        <v>1.010532824379162</v>
       </c>
       <c r="F16">
-        <v>0.9934212254505028</v>
+        <v>1.019919705771955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039045344421019</v>
+        <v>1.041974825667148</v>
       </c>
       <c r="J16">
-        <v>1.007085847361149</v>
+        <v>1.021581827876718</v>
       </c>
       <c r="K16">
-        <v>1.016105182642135</v>
+        <v>1.028916341205704</v>
       </c>
       <c r="L16">
-        <v>1.008166556992964</v>
+        <v>1.02467834743652</v>
       </c>
       <c r="M16">
-        <v>1.007873256012054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.033902732858953</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036670403119761</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031594428141814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802778587414281</v>
+        <v>0.995096303105011</v>
       </c>
       <c r="D17">
-        <v>1.003473241742268</v>
+        <v>1.016052578367078</v>
       </c>
       <c r="E17">
-        <v>0.9956283787890388</v>
+        <v>1.011939086518296</v>
       </c>
       <c r="F17">
-        <v>0.9956273596370572</v>
+        <v>1.021128057767111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039718034290466</v>
+        <v>1.042306019859596</v>
       </c>
       <c r="J17">
-        <v>1.008515610806309</v>
+        <v>1.022744236201473</v>
       </c>
       <c r="K17">
-        <v>1.017420645284151</v>
+        <v>1.029784882582534</v>
       </c>
       <c r="L17">
-        <v>1.009713495008209</v>
+        <v>1.025740969268975</v>
       </c>
       <c r="M17">
-        <v>1.009712493929847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.034775506550996</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03723084978808</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032211123576956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9815635818500611</v>
+        <v>0.9956843912431503</v>
       </c>
       <c r="D18">
-        <v>1.004437539674375</v>
+        <v>1.016332848657113</v>
       </c>
       <c r="E18">
-        <v>0.9967323159843814</v>
+        <v>1.012188737026169</v>
       </c>
       <c r="F18">
-        <v>0.9969035636278066</v>
+        <v>1.021194931928091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040105045699124</v>
+        <v>1.042289669253328</v>
       </c>
       <c r="J18">
-        <v>1.009341655480985</v>
+        <v>1.022911434373471</v>
       </c>
       <c r="K18">
-        <v>1.018180112520404</v>
+        <v>1.029875488086262</v>
       </c>
       <c r="L18">
-        <v>1.010607693308788</v>
+        <v>1.025800342247233</v>
       </c>
       <c r="M18">
-        <v>1.010775960512457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.034657574454173</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036899125285724</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032263486094332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9820000053951529</v>
+        <v>0.9951188305665113</v>
       </c>
       <c r="D19">
-        <v>1.004764879684503</v>
+        <v>1.015834254183795</v>
       </c>
       <c r="E19">
-        <v>0.9971071975647794</v>
+        <v>1.0114373331136</v>
       </c>
       <c r="F19">
-        <v>0.9973369502740024</v>
+        <v>1.020256007336966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040236108625683</v>
+        <v>1.041992825267658</v>
       </c>
       <c r="J19">
-        <v>1.009621994393173</v>
+        <v>1.022231805518498</v>
       </c>
       <c r="K19">
-        <v>1.018437764050165</v>
+        <v>1.029322044184644</v>
       </c>
       <c r="L19">
-        <v>1.010911239409858</v>
+        <v>1.02499802053441</v>
       </c>
       <c r="M19">
-        <v>1.011137019101343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.033671302455997</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035792357682203</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03187861271046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9800404140976678</v>
+        <v>0.9912796886741058</v>
       </c>
       <c r="D20">
-        <v>1.00329516777673</v>
+        <v>1.013103653347116</v>
       </c>
       <c r="E20">
-        <v>0.9954245842796444</v>
+        <v>1.007863600994738</v>
       </c>
       <c r="F20">
-        <v>0.9953917659353327</v>
+        <v>1.016532242506379</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039646417725451</v>
+        <v>1.040886898312854</v>
       </c>
       <c r="J20">
-        <v>1.008363034163501</v>
+        <v>1.01915095230933</v>
       </c>
       <c r="K20">
-        <v>1.017280322046455</v>
+        <v>1.026919938752744</v>
       </c>
       <c r="L20">
-        <v>1.009548366819165</v>
+        <v>1.021769573540245</v>
       </c>
       <c r="M20">
-        <v>1.009516132476714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.030290490707536</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032586420177704</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030184178237226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9735276342108508</v>
+        <v>0.9840235539457143</v>
       </c>
       <c r="D21">
-        <v>0.9984124690699518</v>
+        <v>1.008293596144067</v>
       </c>
       <c r="E21">
-        <v>0.9898442063422742</v>
+        <v>1.002036069723154</v>
       </c>
       <c r="F21">
-        <v>0.9889408186683805</v>
+        <v>1.011161199274367</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037665487149266</v>
+        <v>1.039276996468459</v>
       </c>
       <c r="J21">
-        <v>1.004175419636887</v>
+        <v>1.014204770792061</v>
       </c>
       <c r="K21">
-        <v>1.013423980258561</v>
+        <v>1.023119529098175</v>
       </c>
       <c r="L21">
-        <v>1.00502057204899</v>
+        <v>1.016978970539499</v>
       </c>
       <c r="M21">
-        <v>1.004134784029048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.025934160244473</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.0290974468639</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027500387989659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.969317603142052</v>
+        <v>0.9793918848097626</v>
       </c>
       <c r="D22">
-        <v>0.9952582917903459</v>
+        <v>1.005229551408838</v>
       </c>
       <c r="E22">
-        <v>0.9862464688759753</v>
+        <v>0.9983493129254836</v>
       </c>
       <c r="F22">
-        <v>0.9847818132230947</v>
+        <v>1.00779502744277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036369155120323</v>
+        <v>1.038243351490485</v>
       </c>
       <c r="J22">
-        <v>1.001466148380915</v>
+        <v>1.011064014559966</v>
       </c>
       <c r="K22">
-        <v>1.010924271742497</v>
+        <v>1.02069811688346</v>
       </c>
       <c r="L22">
-        <v>1.002095399877124</v>
+        <v>1.013953541326846</v>
       </c>
       <c r="M22">
-        <v>1.000660896109249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.023213628952214</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026944290607895</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025774680820075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9715607693251873</v>
+        <v>0.981837341757096</v>
       </c>
       <c r="D23">
-        <v>0.9969386422412052</v>
+        <v>1.006837889439925</v>
       </c>
       <c r="E23">
-        <v>0.9881624690925126</v>
+        <v>1.00029193991209</v>
       </c>
       <c r="F23">
-        <v>0.9869967334652504</v>
+        <v>1.009571052510321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037061315940469</v>
+        <v>1.038782444495217</v>
       </c>
       <c r="J23">
-        <v>1.002909880035123</v>
+        <v>1.012716060277221</v>
       </c>
       <c r="K23">
-        <v>1.012256766183647</v>
+        <v>1.021965390867882</v>
       </c>
       <c r="L23">
-        <v>1.003653790177304</v>
+        <v>1.015544938175643</v>
       </c>
       <c r="M23">
-        <v>1.002511365139481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.024646783914382</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02807855760365</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02666097356265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9801477416398988</v>
+        <v>0.9912257324175445</v>
       </c>
       <c r="D24">
-        <v>1.003375658704373</v>
+        <v>1.013039303247358</v>
       </c>
       <c r="E24">
-        <v>0.9955166985802083</v>
+        <v>1.007775293928979</v>
       </c>
       <c r="F24">
-        <v>0.9954982532557614</v>
+        <v>1.016419448590652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039678794696629</v>
+        <v>1.040841566626369</v>
       </c>
       <c r="J24">
-        <v>1.008432001378389</v>
+        <v>1.01906577495456</v>
       </c>
       <c r="K24">
-        <v>1.017343752194516</v>
+        <v>1.02684123919441</v>
       </c>
       <c r="L24">
-        <v>1.009623006128914</v>
+        <v>1.021667228811777</v>
       </c>
       <c r="M24">
-        <v>1.009604888530002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.030164227955896</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032445307847624</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030100917241283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9896510954417413</v>
+        <v>1.001597092732322</v>
       </c>
       <c r="D25">
-        <v>1.010504666676107</v>
+        <v>1.019909912146838</v>
       </c>
       <c r="E25">
-        <v>1.003692984825908</v>
+        <v>1.016079640605557</v>
       </c>
       <c r="F25">
-        <v>1.004951234772113</v>
+        <v>1.024042002033319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042507145162412</v>
+        <v>1.043065944100327</v>
       </c>
       <c r="J25">
-        <v>1.014531832371785</v>
+        <v>1.026070827619802</v>
       </c>
       <c r="K25">
-        <v>1.02294207084322</v>
+        <v>1.032206819073409</v>
       </c>
       <c r="L25">
-        <v>1.016234241195433</v>
+        <v>1.028433365558713</v>
       </c>
       <c r="M25">
-        <v>1.017473172372863</v>
+        <v>1.036278218564895</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037284159730426</v>
+      </c>
+      <c r="Q25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R25">
+        <v>1.03389181414032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009435168207706</v>
+        <v>1.008697061831493</v>
       </c>
       <c r="D2">
-        <v>1.025089581898659</v>
+        <v>1.024214271862577</v>
       </c>
       <c r="E2">
-        <v>1.02237514629768</v>
+        <v>1.021890381040954</v>
       </c>
       <c r="F2">
-        <v>1.029845664825059</v>
+        <v>1.029429639354958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044683534207173</v>
+        <v>1.044439767663333</v>
       </c>
       <c r="J2">
-        <v>1.03133729127675</v>
+        <v>1.030620720895949</v>
       </c>
       <c r="K2">
-        <v>1.03621010389396</v>
+        <v>1.035346263830013</v>
       </c>
       <c r="L2">
-        <v>1.033531318206697</v>
+        <v>1.033052944587844</v>
       </c>
       <c r="M2">
-        <v>1.040904290101636</v>
+        <v>1.040493650311183</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040945392246977</v>
+        <v>1.040620398512917</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036673935897476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03607192014485</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021185533787555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014964987220266</v>
+        <v>1.0138928029406</v>
       </c>
       <c r="D3">
-        <v>1.028762530489122</v>
+        <v>1.027513243925804</v>
       </c>
       <c r="E3">
-        <v>1.026834463408931</v>
+        <v>1.026063307218626</v>
       </c>
       <c r="F3">
-        <v>1.033961840306149</v>
+        <v>1.033319034403002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045811058639118</v>
+        <v>1.045395860610157</v>
       </c>
       <c r="J3">
-        <v>1.035055841591702</v>
+        <v>1.034011770058397</v>
       </c>
       <c r="K3">
-        <v>1.039040155107565</v>
+        <v>1.03780578633071</v>
       </c>
       <c r="L3">
-        <v>1.037135130040246</v>
+        <v>1.036373219889311</v>
       </c>
       <c r="M3">
-        <v>1.044177859195446</v>
+        <v>1.043542628199107</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043536196464673</v>
+        <v>1.043033455654586</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038672371791589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037808073702495</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021767510265047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018459296054377</v>
+        <v>1.017180143396074</v>
       </c>
       <c r="D4">
-        <v>1.031085551625268</v>
+        <v>1.029602997960122</v>
       </c>
       <c r="E4">
-        <v>1.029658342032913</v>
+        <v>1.028709769236483</v>
       </c>
       <c r="F4">
-        <v>1.036572717839321</v>
+        <v>1.035789497455036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04651154433755</v>
+        <v>1.04598942628038</v>
       </c>
       <c r="J4">
-        <v>1.037402314318424</v>
+        <v>1.036154360156526</v>
       </c>
       <c r="K4">
-        <v>1.040822736906026</v>
+        <v>1.039356801486764</v>
       </c>
       <c r="L4">
-        <v>1.039411524137696</v>
+        <v>1.03847361362677</v>
       </c>
       <c r="M4">
-        <v>1.046248904786711</v>
+        <v>1.045474342492155</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045175281484822</v>
+        <v>1.044562271047627</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039933712178055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038905754362438</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022131691074592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01991555525565</v>
+        <v>1.018550891439478</v>
       </c>
       <c r="D5">
-        <v>1.032056840191871</v>
+        <v>1.030477627231305</v>
       </c>
       <c r="E5">
-        <v>1.030837242718914</v>
+        <v>1.029815312464596</v>
       </c>
       <c r="F5">
-        <v>1.0376628588755</v>
+        <v>1.036821608580971</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046802899822973</v>
+        <v>1.046236375968087</v>
       </c>
       <c r="J5">
-        <v>1.038381351092565</v>
+        <v>1.037048946817007</v>
       </c>
       <c r="K5">
-        <v>1.04156787113361</v>
+        <v>1.040005881214693</v>
       </c>
       <c r="L5">
-        <v>1.040361569006599</v>
+        <v>1.039350809018723</v>
       </c>
       <c r="M5">
-        <v>1.047113268936419</v>
+        <v>1.046281064290066</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045859363036887</v>
+        <v>1.045200733411362</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040467752574823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039372588535718</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022284209277723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020166872595515</v>
+        <v>1.018787268939391</v>
       </c>
       <c r="D6">
-        <v>1.032227821152561</v>
+        <v>1.030631785662671</v>
       </c>
       <c r="E6">
-        <v>1.031041573862223</v>
+        <v>1.03000674407581</v>
       </c>
       <c r="F6">
-        <v>1.037850821217629</v>
+        <v>1.036999383411551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046855892602383</v>
+        <v>1.046281508456882</v>
       </c>
       <c r="J6">
-        <v>1.03855266882601</v>
+        <v>1.037205504818404</v>
       </c>
       <c r="K6">
-        <v>1.041700850900414</v>
+        <v>1.040122140787012</v>
       </c>
       <c r="L6">
-        <v>1.040527474350704</v>
+        <v>1.039503902143039</v>
       </c>
       <c r="M6">
-        <v>1.047263331941423</v>
+        <v>1.046421006303391</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045978126959823</v>
+        <v>1.045311487407556</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040570518467645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039464404303928</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022312461056906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018500254592293</v>
+        <v>1.017218018995285</v>
       </c>
       <c r="D7">
-        <v>1.031121852937245</v>
+        <v>1.029636054520987</v>
       </c>
       <c r="E7">
-        <v>1.029693687241436</v>
+        <v>1.028742235899027</v>
       </c>
       <c r="F7">
-        <v>1.036602563198951</v>
+        <v>1.035817109832945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046527565632974</v>
+        <v>1.046003589271712</v>
       </c>
       <c r="J7">
-        <v>1.037436353526774</v>
+        <v>1.036185376971084</v>
       </c>
       <c r="K7">
-        <v>1.040855751648029</v>
+        <v>1.039386600916364</v>
       </c>
       <c r="L7">
-        <v>1.03944358678596</v>
+        <v>1.038502825650714</v>
       </c>
       <c r="M7">
-        <v>1.046275560433102</v>
+        <v>1.04549878635929</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045196377505751</v>
+        <v>1.044581616621069</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039977162714126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038948938750345</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02214134665138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011349343515455</v>
+        <v>1.010493698766257</v>
       </c>
       <c r="D8">
-        <v>1.026371881115658</v>
+        <v>1.02536567044929</v>
       </c>
       <c r="E8">
-        <v>1.023920462566905</v>
+        <v>1.023334616198593</v>
       </c>
       <c r="F8">
-        <v>1.031267536974237</v>
+        <v>1.030771514738119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045086236283427</v>
+        <v>1.044781954996341</v>
       </c>
       <c r="J8">
-        <v>1.032633370739384</v>
+        <v>1.031801819259399</v>
       </c>
       <c r="K8">
-        <v>1.037206095311386</v>
+        <v>1.036212669194532</v>
       </c>
       <c r="L8">
-        <v>1.034785878526943</v>
+        <v>1.034207516492373</v>
       </c>
       <c r="M8">
-        <v>1.042039992660484</v>
+        <v>1.041550194417475</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041844223561792</v>
+        <v>1.041456581709844</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03740114041149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036709766879096</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021394541276755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9980304991365821</v>
+        <v>0.9980070875820226</v>
       </c>
       <c r="D9">
-        <v>1.017530749688574</v>
+        <v>1.01744498159829</v>
       </c>
       <c r="E9">
-        <v>1.013215143012659</v>
+        <v>1.013342485053381</v>
       </c>
       <c r="F9">
-        <v>1.021414458216154</v>
+        <v>1.021483711292673</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042295163758272</v>
+        <v>1.042413040122117</v>
       </c>
       <c r="J9">
-        <v>1.023652997765854</v>
+        <v>1.023630417536798</v>
       </c>
       <c r="K9">
-        <v>1.030345664565723</v>
+        <v>1.030261227551538</v>
       </c>
       <c r="L9">
-        <v>1.026097391523821</v>
+        <v>1.026222736224256</v>
       </c>
       <c r="M9">
-        <v>1.034169398911491</v>
+        <v>1.034237587828888</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035615160917874</v>
+        <v>1.035669128241018</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032547118037292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03249821668563</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019967345298273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.988813945061088</v>
+        <v>0.9893866337081593</v>
       </c>
       <c r="D10">
-        <v>1.011454973240707</v>
+        <v>1.012017326929358</v>
       </c>
       <c r="E10">
-        <v>1.005899314168547</v>
+        <v>1.006534300898443</v>
       </c>
       <c r="F10">
-        <v>1.014749453524992</v>
+        <v>1.015222162377694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04033631772832</v>
+        <v>1.040748803772463</v>
       </c>
       <c r="J10">
-        <v>1.017478514030285</v>
+        <v>1.018027763629928</v>
       </c>
       <c r="K10">
-        <v>1.02562043950004</v>
+        <v>1.026172942610102</v>
       </c>
       <c r="L10">
-        <v>1.020162865375182</v>
+        <v>1.020786570325197</v>
       </c>
       <c r="M10">
-        <v>1.028857412496332</v>
+        <v>1.029321909537786</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031462918553271</v>
+        <v>1.031830518104977</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029222957405291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029626124734637</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018983373841684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9861739321404301</v>
+        <v>0.9868483241051493</v>
       </c>
       <c r="D11">
-        <v>1.009898560530757</v>
+        <v>1.010576461113163</v>
       </c>
       <c r="E11">
-        <v>1.004246776238084</v>
+        <v>1.004951205601034</v>
       </c>
       <c r="F11">
-        <v>1.013605208255461</v>
+        <v>1.014136498059811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040012385961713</v>
+        <v>1.040459280145093</v>
       </c>
       <c r="J11">
-        <v>1.016133421917339</v>
+        <v>1.016778651186317</v>
       </c>
       <c r="K11">
-        <v>1.024636187998241</v>
+        <v>1.02530163964034</v>
       </c>
       <c r="L11">
-        <v>1.019089046519086</v>
+        <v>1.019780349599543</v>
       </c>
       <c r="M11">
-        <v>1.028275031665338</v>
+        <v>1.028796655663167</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03144180635231</v>
+        <v>1.031854404892834</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028560161177012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029046405615514</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01885710024964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857598734331564</v>
+        <v>0.9864025410170705</v>
       </c>
       <c r="D12">
-        <v>1.009765262821594</v>
+        <v>1.010413676026795</v>
       </c>
       <c r="E12">
-        <v>1.004247773985364</v>
+        <v>1.004911641045779</v>
       </c>
       <c r="F12">
-        <v>1.013862557939674</v>
+        <v>1.014364371705358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040110162389126</v>
+        <v>1.040529396827817</v>
       </c>
       <c r="J12">
-        <v>1.016179371894323</v>
+        <v>1.016793730177804</v>
       </c>
       <c r="K12">
-        <v>1.024707737057821</v>
+        <v>1.025344049429742</v>
       </c>
       <c r="L12">
-        <v>1.019294043335624</v>
+        <v>1.019945342876334</v>
       </c>
       <c r="M12">
-        <v>1.028728906597543</v>
+        <v>1.029221452024325</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032129472812738</v>
+        <v>1.032518936844086</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028610749492577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02907639051861</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018932275694679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9870574208532531</v>
+        <v>0.9875612697336705</v>
       </c>
       <c r="D13">
-        <v>1.01074376834847</v>
+        <v>1.011246938747166</v>
       </c>
       <c r="E13">
-        <v>1.005544690247163</v>
+        <v>1.006078871727225</v>
       </c>
       <c r="F13">
-        <v>1.015244974734653</v>
+        <v>1.015646288609483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040556930455612</v>
+        <v>1.040897632476013</v>
       </c>
       <c r="J13">
-        <v>1.017325150977308</v>
+        <v>1.017806965520796</v>
       </c>
       <c r="K13">
-        <v>1.025624636535523</v>
+        <v>1.026118469983835</v>
       </c>
       <c r="L13">
-        <v>1.020522748439084</v>
+        <v>1.021046883617982</v>
       </c>
       <c r="M13">
-        <v>1.03004274588437</v>
+        <v>1.030436697654693</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033446494106153</v>
+        <v>1.03375791946036</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029256524859107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029621172542199</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019177943059878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.98873279355871</v>
+        <v>0.989092809411611</v>
       </c>
       <c r="D14">
-        <v>1.011928222765868</v>
+        <v>1.012278854138137</v>
       </c>
       <c r="E14">
-        <v>1.00703055965467</v>
+        <v>1.007435296583054</v>
       </c>
       <c r="F14">
-        <v>1.016713804803215</v>
+        <v>1.017013977645027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04102579857273</v>
+        <v>1.041289266190255</v>
       </c>
       <c r="J14">
-        <v>1.01861826741326</v>
+        <v>1.018962800635569</v>
       </c>
       <c r="K14">
-        <v>1.02664532100969</v>
+        <v>1.026989535893201</v>
       </c>
       <c r="L14">
-        <v>1.021837893347445</v>
+        <v>1.022235129965529</v>
       </c>
       <c r="M14">
-        <v>1.031343824514307</v>
+        <v>1.031638570918797</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034649021305045</v>
+        <v>1.034881991639356</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029979628209662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030238614237055</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019426489194266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9895241210522943</v>
+        <v>0.9898252475291625</v>
       </c>
       <c r="D15">
-        <v>1.01246888466566</v>
+        <v>1.012756419419133</v>
       </c>
       <c r="E15">
-        <v>1.007689682168302</v>
+        <v>1.008042925382331</v>
       </c>
       <c r="F15">
-        <v>1.017338373948495</v>
+        <v>1.017598021625302</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041221216500053</v>
+        <v>1.041454320005828</v>
       </c>
       <c r="J15">
-        <v>1.019185526842748</v>
+        <v>1.019473828496575</v>
       </c>
       <c r="K15">
-        <v>1.027088782446413</v>
+        <v>1.027371098195503</v>
       </c>
       <c r="L15">
-        <v>1.022396894834244</v>
+        <v>1.022743647468427</v>
       </c>
       <c r="M15">
-        <v>1.031870403409787</v>
+        <v>1.032125396506153</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035102896283922</v>
+        <v>1.035304439948641</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030299085330385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030514871559751</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019527581482077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9931723373507718</v>
+        <v>0.9932489740995112</v>
       </c>
       <c r="D16">
-        <v>1.014845965799748</v>
+        <v>1.014888581696413</v>
       </c>
       <c r="E16">
-        <v>1.010532824379162</v>
+        <v>1.010698556937784</v>
       </c>
       <c r="F16">
-        <v>1.019919705771955</v>
+        <v>1.020029933492641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041974825667148</v>
+        <v>1.042099787546079</v>
       </c>
       <c r="J16">
-        <v>1.021581827876718</v>
+        <v>1.021655374683619</v>
       </c>
       <c r="K16">
-        <v>1.028916341205704</v>
+        <v>1.028958218731058</v>
       </c>
       <c r="L16">
-        <v>1.02467834743652</v>
+        <v>1.024841177094173</v>
       </c>
       <c r="M16">
-        <v>1.033902732858953</v>
+        <v>1.034011075385345</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036670403119761</v>
+        <v>1.036756038361694</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031594428141814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031640500704304</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019901295992489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.995096303105011</v>
+        <v>0.9950758602535738</v>
       </c>
       <c r="D17">
-        <v>1.016052578367078</v>
+        <v>1.015986936540398</v>
       </c>
       <c r="E17">
-        <v>1.011939086518296</v>
+        <v>1.012028300627373</v>
       </c>
       <c r="F17">
-        <v>1.021128057767111</v>
+        <v>1.021176258849724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042306019859596</v>
+        <v>1.042388172975153</v>
       </c>
       <c r="J17">
-        <v>1.022744236201473</v>
+        <v>1.02272458994658</v>
       </c>
       <c r="K17">
-        <v>1.029784882582534</v>
+        <v>1.02972034536364</v>
       </c>
       <c r="L17">
-        <v>1.025740969268975</v>
+        <v>1.025828666599592</v>
       </c>
       <c r="M17">
-        <v>1.034775506550996</v>
+        <v>1.034822906980625</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03723084978808</v>
+        <v>1.03726831942426</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032211123576956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032182198641981</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020057474757256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9956843912431503</v>
+        <v>0.9956693408723511</v>
       </c>
       <c r="D18">
-        <v>1.016332848657113</v>
+        <v>1.016269186231819</v>
       </c>
       <c r="E18">
-        <v>1.012188737026169</v>
+        <v>1.012292071343916</v>
       </c>
       <c r="F18">
-        <v>1.021194931928091</v>
+        <v>1.021252173490762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042289669253328</v>
+        <v>1.042383167465484</v>
       </c>
       <c r="J18">
-        <v>1.022911434373471</v>
+        <v>1.022896959576429</v>
       </c>
       <c r="K18">
-        <v>1.029875488086262</v>
+        <v>1.029812879647472</v>
       </c>
       <c r="L18">
-        <v>1.025800342247233</v>
+        <v>1.025901948041922</v>
       </c>
       <c r="M18">
-        <v>1.034657574454173</v>
+        <v>1.034713880040348</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036899125285724</v>
+        <v>1.03694364370762</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032263486094332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032234789234168</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020030565367352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9951188305665113</v>
+        <v>0.9951933897956993</v>
       </c>
       <c r="D19">
-        <v>1.015834254183795</v>
+        <v>1.015863845063319</v>
       </c>
       <c r="E19">
-        <v>1.0114373331136</v>
+        <v>1.011628639301152</v>
       </c>
       <c r="F19">
-        <v>1.020256007336966</v>
+        <v>1.020380404819081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041992825267658</v>
+        <v>1.042141464126008</v>
       </c>
       <c r="J19">
-        <v>1.022231805518498</v>
+        <v>1.022303525877642</v>
       </c>
       <c r="K19">
-        <v>1.029322044184644</v>
+        <v>1.029351147221488</v>
       </c>
       <c r="L19">
-        <v>1.02499802053441</v>
+        <v>1.025186138034012</v>
       </c>
       <c r="M19">
-        <v>1.033671302455997</v>
+        <v>1.03379367211019</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035792357682203</v>
+        <v>1.035889142013264</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03187861271046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031915389646351</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019857886669367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9912796886741058</v>
+        <v>0.9916873434140525</v>
       </c>
       <c r="D20">
-        <v>1.013103653347116</v>
+        <v>1.013488321493438</v>
       </c>
       <c r="E20">
-        <v>1.007863600994738</v>
+        <v>1.008357256173138</v>
       </c>
       <c r="F20">
-        <v>1.016532242506379</v>
+        <v>1.016892759763214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040886898312854</v>
+        <v>1.041217273950971</v>
       </c>
       <c r="J20">
-        <v>1.01915095230933</v>
+        <v>1.019542508035725</v>
       </c>
       <c r="K20">
-        <v>1.026919938752744</v>
+        <v>1.027298070208719</v>
       </c>
       <c r="L20">
-        <v>1.021769573540245</v>
+        <v>1.022254728045971</v>
       </c>
       <c r="M20">
-        <v>1.030290490707536</v>
+        <v>1.030644934660872</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032586420177704</v>
+        <v>1.032866927760127</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030184178237226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030468142008046</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019263111871455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9840235539457143</v>
+        <v>0.9849258452113404</v>
       </c>
       <c r="D21">
-        <v>1.008293596144067</v>
+        <v>1.009209612273579</v>
       </c>
       <c r="E21">
-        <v>1.002036069723154</v>
+        <v>1.002953275077398</v>
       </c>
       <c r="F21">
-        <v>1.011161199274367</v>
+        <v>1.011858054540193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039276996468459</v>
+        <v>1.039851939227353</v>
       </c>
       <c r="J21">
-        <v>1.014204770792061</v>
+        <v>1.015067615887785</v>
       </c>
       <c r="K21">
-        <v>1.023119529098175</v>
+        <v>1.024018581401676</v>
       </c>
       <c r="L21">
-        <v>1.016978970539499</v>
+        <v>1.017878911937854</v>
       </c>
       <c r="M21">
-        <v>1.025934160244473</v>
+        <v>1.026618201877262</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.0290974468639</v>
+        <v>1.029638828486261</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027500387989659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028153024864769</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018452121881454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9793918848097626</v>
+        <v>0.9806154075252742</v>
       </c>
       <c r="D22">
-        <v>1.005229551408838</v>
+        <v>1.006487070955653</v>
       </c>
       <c r="E22">
-        <v>0.9983493129254836</v>
+        <v>0.9995404145689181</v>
       </c>
       <c r="F22">
-        <v>1.00779502744277</v>
+        <v>1.00870973054301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038243351490485</v>
+        <v>1.038974834154979</v>
       </c>
       <c r="J22">
-        <v>1.011064014559966</v>
+        <v>1.012230633849919</v>
       </c>
       <c r="K22">
-        <v>1.02069811688346</v>
+        <v>1.021931103853081</v>
       </c>
       <c r="L22">
-        <v>1.013953541326846</v>
+        <v>1.015120981437619</v>
       </c>
       <c r="M22">
-        <v>1.023213628952214</v>
+        <v>1.024110598285465</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026944290607895</v>
+        <v>1.027654195015892</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025774680820075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02666215056903</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017934621800334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.981837341757096</v>
+        <v>0.9828915901142241</v>
       </c>
       <c r="D23">
-        <v>1.006837889439925</v>
+        <v>1.00791554902864</v>
       </c>
       <c r="E23">
-        <v>1.00029193991209</v>
+        <v>1.001339110875761</v>
       </c>
       <c r="F23">
-        <v>1.009571052510321</v>
+        <v>1.010371186822305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038782444495217</v>
+        <v>1.039432014576773</v>
       </c>
       <c r="J23">
-        <v>1.012716060277221</v>
+        <v>1.013722848777511</v>
       </c>
       <c r="K23">
-        <v>1.021965390867882</v>
+        <v>1.023022594208329</v>
       </c>
       <c r="L23">
-        <v>1.015544938175643</v>
+        <v>1.016571888701063</v>
       </c>
       <c r="M23">
-        <v>1.024646783914382</v>
+        <v>1.025431831774063</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02807855760365</v>
+        <v>1.028699881023024</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02666097356265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027423203419099</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018202807024355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9912257324175445</v>
+        <v>0.9916449433774113</v>
       </c>
       <c r="D24">
-        <v>1.013039303247358</v>
+        <v>1.013435553681115</v>
       </c>
       <c r="E24">
-        <v>1.007775293928979</v>
+        <v>1.008280719988385</v>
       </c>
       <c r="F24">
-        <v>1.016419448590652</v>
+        <v>1.016788929977985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040841566626369</v>
+        <v>1.041179502569023</v>
       </c>
       <c r="J24">
-        <v>1.01906577495456</v>
+        <v>1.019468451559282</v>
       </c>
       <c r="K24">
-        <v>1.02684123919441</v>
+        <v>1.027230763764458</v>
       </c>
       <c r="L24">
-        <v>1.021667228811777</v>
+        <v>1.02216396086356</v>
       </c>
       <c r="M24">
-        <v>1.030164227955896</v>
+        <v>1.030527491307552</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032445307847624</v>
+        <v>1.032732809635824</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030100917241283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030390267476881</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019235075224167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001597092732322</v>
+        <v>1.001344571713997</v>
       </c>
       <c r="D25">
-        <v>1.019909912146838</v>
+        <v>1.019573116287278</v>
       </c>
       <c r="E25">
-        <v>1.016079640605557</v>
+        <v>1.01601032197357</v>
       </c>
       <c r="F25">
-        <v>1.024042002033319</v>
+        <v>1.023955363088789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043065944100327</v>
+        <v>1.043068014874315</v>
       </c>
       <c r="J25">
-        <v>1.026070827619802</v>
+        <v>1.025826770231507</v>
       </c>
       <c r="K25">
-        <v>1.032206819073409</v>
+        <v>1.031874997475088</v>
       </c>
       <c r="L25">
-        <v>1.028433365558713</v>
+        <v>1.028365080214433</v>
       </c>
       <c r="M25">
-        <v>1.036278218564895</v>
+        <v>1.036192845757161</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037284159730426</v>
+        <v>1.037216592570755</v>
       </c>
       <c r="Q25">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03389181414032</v>
+        <v>1.033670791284524</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020361353682141</v>
       </c>
     </row>
   </sheetData>
